--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_16_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3650488.802703479</v>
+        <v>-3651315.095537972</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3232064.881861077</v>
+        <v>3232064.881861084</v>
       </c>
     </row>
     <row r="8">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.8716252173193</v>
+        <v>287.8716252173194</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>12.74420795023258</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>309.1594978745047</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.6087210113937</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.57772831531535</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.54719260666907</v>
+        <v>70.5471926066692</v>
       </c>
       <c r="T11" t="n">
-        <v>117.4676296620865</v>
+        <v>117.4676296620872</v>
       </c>
       <c r="U11" t="n">
-        <v>150.0608464255999</v>
+        <v>150.0608464256</v>
       </c>
       <c r="V11" t="n">
-        <v>231.3780024574984</v>
+        <v>231.3780024574986</v>
       </c>
       <c r="W11" t="n">
-        <v>256.6781019354553</v>
+        <v>256.6781019354555</v>
       </c>
       <c r="X11" t="n">
-        <v>275.978360168202</v>
+        <v>275.9783601682021</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.1461173668237</v>
+        <v>287.3749579644008</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.59376944792864</v>
+        <v>122.3119278970511</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>57.85515712593534</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>110.0444093872857</v>
+        <v>43.32625093817796</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>31.11538116410489</v>
       </c>
       <c r="G12" t="n">
-        <v>24.91440613843623</v>
+        <v>127.1458850439559</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>88.36463418139731</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.48833609201638</v>
+        <v>79.48833609201651</v>
       </c>
       <c r="C13" t="n">
-        <v>65.68833093741686</v>
+        <v>65.68833093741699</v>
       </c>
       <c r="D13" t="n">
-        <v>49.30969533499525</v>
+        <v>49.30969533499538</v>
       </c>
       <c r="E13" t="n">
-        <v>48.2574451907747</v>
+        <v>48.25744519077483</v>
       </c>
       <c r="F13" t="n">
-        <v>48.72436951896091</v>
+        <v>48.72436951895769</v>
       </c>
       <c r="G13" t="n">
-        <v>64.75147754526346</v>
+        <v>64.75147754526358</v>
       </c>
       <c r="H13" t="n">
-        <v>53.34609793795934</v>
+        <v>53.34609793795947</v>
       </c>
       <c r="I13" t="n">
-        <v>33.08368730955452</v>
+        <v>33.08368730955465</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66232683265957</v>
+        <v>34.66232683266001</v>
       </c>
       <c r="S13" t="n">
-        <v>105.0262857884477</v>
+        <v>105.0262857884479</v>
       </c>
       <c r="T13" t="n">
-        <v>127.5577801408553</v>
+        <v>127.5577801408554</v>
       </c>
       <c r="U13" t="n">
-        <v>182.0733530450872</v>
+        <v>182.0733530450876</v>
       </c>
       <c r="V13" t="n">
-        <v>155.896472491642</v>
+        <v>155.8964724916421</v>
       </c>
       <c r="W13" t="n">
-        <v>181.0633585622552</v>
+        <v>181.0633585622554</v>
       </c>
       <c r="X13" t="n">
-        <v>126.7084605580583</v>
+        <v>126.7084605580585</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.583328314126</v>
+        <v>117.5833283141262</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>266.864246219529</v>
       </c>
       <c r="E14" t="n">
-        <v>91.91437774406351</v>
+        <v>91.9143777440532</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.57772831531522</v>
+        <v>47.57772831531527</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.54719260666896</v>
+        <v>70.54719260666941</v>
       </c>
       <c r="T14" t="n">
-        <v>117.4676296620864</v>
+        <v>117.4676296620865</v>
       </c>
       <c r="U14" t="n">
-        <v>150.0608464256002</v>
+        <v>150.0608464255993</v>
       </c>
       <c r="V14" t="n">
-        <v>231.3780024574984</v>
+        <v>231.3780024574985</v>
       </c>
       <c r="W14" t="n">
-        <v>256.6781019354553</v>
+        <v>256.6781019354554</v>
       </c>
       <c r="X14" t="n">
-        <v>275.9783601682019</v>
+        <v>275.978360168202</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.3749579644007</v>
+        <v>287.3749579644008</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>89.16055157467666</v>
+        <v>127.1458850439559</v>
       </c>
       <c r="H15" t="n">
-        <v>96.08621347328979</v>
+        <v>0.5705753278203909</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>57.53030467618051</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.85006423600237</v>
+        <v>40.85006423600236</v>
       </c>
       <c r="S15" t="n">
         <v>145.7858681427258</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.48833609201637</v>
+        <v>79.48833609201643</v>
       </c>
       <c r="C16" t="n">
-        <v>65.68833093741685</v>
+        <v>65.68833093741691</v>
       </c>
       <c r="D16" t="n">
-        <v>49.30969533499524</v>
+        <v>49.3096953349953</v>
       </c>
       <c r="E16" t="n">
-        <v>48.25744519077469</v>
+        <v>48.25744519077475</v>
       </c>
       <c r="F16" t="n">
-        <v>48.724369518961</v>
+        <v>48.72436951896105</v>
       </c>
       <c r="G16" t="n">
-        <v>64.75147754526344</v>
+        <v>64.7514775452635</v>
       </c>
       <c r="H16" t="n">
-        <v>53.34609793795933</v>
+        <v>53.34609793795939</v>
       </c>
       <c r="I16" t="n">
-        <v>33.08368730955473</v>
+        <v>33.08368730955449</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66232683265956</v>
+        <v>34.66232683265962</v>
       </c>
       <c r="S16" t="n">
-        <v>105.0262857884477</v>
+        <v>105.0262857884478</v>
       </c>
       <c r="T16" t="n">
         <v>127.5577801408553</v>
@@ -1825,13 +1825,13 @@
         <v>155.896472491642</v>
       </c>
       <c r="W16" t="n">
-        <v>181.0633585622552</v>
+        <v>181.0633585622553</v>
       </c>
       <c r="X16" t="n">
-        <v>126.7084605580583</v>
+        <v>126.7084605580584</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.583328314126</v>
+        <v>117.5833283141261</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.3244326106502</v>
+        <v>217.3244326106496</v>
       </c>
       <c r="C17" t="n">
-        <v>205.335749568332</v>
+        <v>205.3357495683314</v>
       </c>
       <c r="D17" t="n">
-        <v>196.31705361286</v>
+        <v>196.3170536128593</v>
       </c>
       <c r="E17" t="n">
-        <v>218.0591911827655</v>
+        <v>218.0591911827649</v>
       </c>
       <c r="F17" t="n">
-        <v>237.2310072707442</v>
+        <v>237.231007270742</v>
       </c>
       <c r="G17" t="n">
-        <v>238.6123052678356</v>
+        <v>238.612305267835</v>
       </c>
       <c r="H17" t="n">
-        <v>151.0615284047245</v>
+        <v>151.0615284047239</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>46.92043705541738</v>
+        <v>46.92043705541676</v>
       </c>
       <c r="U17" t="n">
-        <v>79.51365381893081</v>
+        <v>79.51365381893019</v>
       </c>
       <c r="V17" t="n">
-        <v>160.8308098508294</v>
+        <v>160.8308098508287</v>
       </c>
       <c r="W17" t="n">
-        <v>186.1309093287863</v>
+        <v>186.1309093287856</v>
       </c>
       <c r="X17" t="n">
-        <v>205.4311675615329</v>
+        <v>205.4311675615322</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.8277653577316</v>
+        <v>216.827765357731</v>
       </c>
     </row>
     <row r="18">
@@ -1929,13 +1929,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>50.04209169822811</v>
       </c>
       <c r="F18" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>31.63024689849615</v>
+        <v>127.1458850439559</v>
       </c>
       <c r="H18" t="n">
         <v>96.08621347328979</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.941143485347311</v>
+        <v>8.941143485346686</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.47909318177867</v>
+        <v>34.47909318177804</v>
       </c>
       <c r="T19" t="n">
-        <v>229.7892590463749</v>
+        <v>57.01058753418558</v>
       </c>
       <c r="U19" t="n">
-        <v>111.5261604384181</v>
+        <v>111.5261604384175</v>
       </c>
       <c r="V19" t="n">
-        <v>131.384526711166</v>
+        <v>85.34927988497228</v>
       </c>
       <c r="W19" t="n">
-        <v>110.5161659555862</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>56.16126795138928</v>
+        <v>102.1965147775859</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.03613570745696</v>
+        <v>47.03613570745634</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>217.3244326106502</v>
+        <v>217.3244326106496</v>
       </c>
       <c r="C20" t="n">
-        <v>205.335749568332</v>
+        <v>205.3357495683314</v>
       </c>
       <c r="D20" t="n">
-        <v>196.31705361286</v>
+        <v>196.3170536128593</v>
       </c>
       <c r="E20" t="n">
-        <v>218.0591911827655</v>
+        <v>218.0591911827649</v>
       </c>
       <c r="F20" t="n">
-        <v>237.2310072707427</v>
+        <v>237.231007270742</v>
       </c>
       <c r="G20" t="n">
-        <v>238.6123052678356</v>
+        <v>238.612305267835</v>
       </c>
       <c r="H20" t="n">
-        <v>151.0615284047245</v>
+        <v>151.0615284047239</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>46.92043705541738</v>
+        <v>46.92043705541676</v>
       </c>
       <c r="U20" t="n">
-        <v>79.51365381893082</v>
+        <v>79.51365381893081</v>
       </c>
       <c r="V20" t="n">
-        <v>160.8308098508294</v>
+        <v>160.8308098508287</v>
       </c>
       <c r="W20" t="n">
-        <v>186.1309093287863</v>
+        <v>186.1309093287856</v>
       </c>
       <c r="X20" t="n">
-        <v>205.4311675615329</v>
+        <v>205.4311675615322</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.8277653577316</v>
+        <v>216.827765357731</v>
       </c>
     </row>
     <row r="21">
@@ -2163,13 +2163,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>41.9346124942303</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>37.83122192415628</v>
       </c>
       <c r="G21" t="n">
         <v>127.1458850439559</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.55710179744784</v>
+        <v>8.941143485346686</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.03524682619727</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.4192885140925</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>207.2577646939674</v>
+        <v>34.47909318177804</v>
       </c>
       <c r="T22" t="n">
-        <v>57.01058753418621</v>
+        <v>57.01058753418558</v>
       </c>
       <c r="U22" t="n">
-        <v>111.5261604384181</v>
+        <v>111.5261604384175</v>
       </c>
       <c r="V22" t="n">
-        <v>85.3492798849729</v>
+        <v>85.34927988497228</v>
       </c>
       <c r="W22" t="n">
-        <v>110.5161659555862</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>56.16126795138928</v>
+        <v>56.16126795138865</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.03613570745696</v>
+        <v>47.03613570745634</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>217.3244326106502</v>
+        <v>217.3244326106496</v>
       </c>
       <c r="C23" t="n">
-        <v>205.335749568332</v>
+        <v>205.3357495683314</v>
       </c>
       <c r="D23" t="n">
-        <v>196.31705361286</v>
+        <v>196.3170536128593</v>
       </c>
       <c r="E23" t="n">
-        <v>218.0591911827655</v>
+        <v>218.0591911827649</v>
       </c>
       <c r="F23" t="n">
-        <v>237.2310072707427</v>
+        <v>237.231007270742</v>
       </c>
       <c r="G23" t="n">
-        <v>238.6123052678356</v>
+        <v>238.612305267835</v>
       </c>
       <c r="H23" t="n">
-        <v>151.0615284047246</v>
+        <v>151.0615284047239</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>46.92043705541738</v>
+        <v>46.92043705541676</v>
       </c>
       <c r="U23" t="n">
-        <v>79.51365381893081</v>
+        <v>79.51365381893018</v>
       </c>
       <c r="V23" t="n">
-        <v>160.8308098508294</v>
+        <v>160.8308098508287</v>
       </c>
       <c r="W23" t="n">
-        <v>186.1309093287863</v>
+        <v>186.1309093287856</v>
       </c>
       <c r="X23" t="n">
-        <v>205.4311675615329</v>
+        <v>205.4311675615322</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.8277653577316</v>
+        <v>216.827765357731</v>
       </c>
     </row>
     <row r="24">
@@ -2409,10 +2409,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>31.63024689849486</v>
+        <v>127.1458850439559</v>
       </c>
       <c r="H24" t="n">
-        <v>96.08621347328979</v>
+        <v>0.5705753278194905</v>
       </c>
       <c r="I24" t="n">
         <v>57.53030467618051</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.941143485347311</v>
+        <v>8.941143485346686</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.03524682619737</v>
       </c>
       <c r="S25" t="n">
-        <v>34.47909318177867</v>
+        <v>34.47909318177804</v>
       </c>
       <c r="T25" t="n">
-        <v>57.01058753418621</v>
+        <v>57.01058753418558</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3048319506068</v>
+        <v>111.5261604384175</v>
       </c>
       <c r="V25" t="n">
-        <v>131.3845267111658</v>
+        <v>85.34927988497228</v>
       </c>
       <c r="W25" t="n">
-        <v>110.5161659555862</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>56.16126795138928</v>
+        <v>56.16126795138865</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.03613570745696</v>
+        <v>47.03613570745634</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.6087210113936</v>
       </c>
       <c r="I26" t="n">
-        <v>47.57772831531523</v>
+        <v>47.57772831531524</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.54719260666896</v>
+        <v>70.54719260666909</v>
       </c>
       <c r="T26" t="n">
-        <v>117.4676296620865</v>
+        <v>117.4676296620867</v>
       </c>
       <c r="U26" t="n">
-        <v>150.0608464256002</v>
+        <v>150.0608464256011</v>
       </c>
       <c r="V26" t="n">
         <v>231.3780024574984</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.48833609201638</v>
+        <v>79.4883360920164</v>
       </c>
       <c r="C28" t="n">
-        <v>65.68833093741686</v>
+        <v>65.68833093741688</v>
       </c>
       <c r="D28" t="n">
-        <v>49.30969533499525</v>
+        <v>49.30969533499527</v>
       </c>
       <c r="E28" t="n">
-        <v>48.2574451907747</v>
+        <v>48.25744519077472</v>
       </c>
       <c r="F28" t="n">
-        <v>48.72436951896101</v>
+        <v>48.72436951896103</v>
       </c>
       <c r="G28" t="n">
-        <v>64.75147754526346</v>
+        <v>64.75147754526347</v>
       </c>
       <c r="H28" t="n">
-        <v>53.34609793795934</v>
+        <v>53.34609793795936</v>
       </c>
       <c r="I28" t="n">
-        <v>33.08368730955452</v>
+        <v>33.08368730955453</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66232683265979</v>
+        <v>34.66232683265959</v>
       </c>
       <c r="S28" t="n">
-        <v>105.0262857884477</v>
+        <v>105.0262857884478</v>
       </c>
       <c r="T28" t="n">
         <v>127.5577801408553</v>
@@ -2776,7 +2776,7 @@
         <v>181.0633585622552</v>
       </c>
       <c r="X28" t="n">
-        <v>126.7084605580583</v>
+        <v>126.7084605580584</v>
       </c>
       <c r="Y28" t="n">
         <v>117.583328314126</v>
@@ -2798,19 +2798,19 @@
         <v>266.864246219529</v>
       </c>
       <c r="E29" t="n">
-        <v>288.6063837894345</v>
+        <v>288.6063837894346</v>
       </c>
       <c r="F29" t="n">
         <v>307.7781998774117</v>
       </c>
       <c r="G29" t="n">
-        <v>309.1594978745046</v>
+        <v>309.1594978745047</v>
       </c>
       <c r="H29" t="n">
         <v>221.6087210113936</v>
       </c>
       <c r="I29" t="n">
-        <v>47.57772831531522</v>
+        <v>47.57772831531528</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.54719260666896</v>
+        <v>70.54719260666941</v>
       </c>
       <c r="T29" t="n">
-        <v>117.4676296620864</v>
+        <v>117.4676296620865</v>
       </c>
       <c r="U29" t="n">
         <v>150.0608464256002</v>
@@ -2855,7 +2855,7 @@
         <v>256.6781019354553</v>
       </c>
       <c r="X29" t="n">
-        <v>275.9783601682019</v>
+        <v>275.978360168202</v>
       </c>
       <c r="Y29" t="n">
         <v>287.3749579644007</v>
@@ -2889,7 +2889,7 @@
         <v>96.08621347328979</v>
       </c>
       <c r="I30" t="n">
-        <v>57.53030467618051</v>
+        <v>57.53030467618053</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.85006423600237</v>
+        <v>40.8500642360024</v>
       </c>
       <c r="S30" t="n">
         <v>145.7858681427258</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.48833609201637</v>
+        <v>79.4883360920164</v>
       </c>
       <c r="C31" t="n">
-        <v>65.68833093741685</v>
+        <v>65.68833093741688</v>
       </c>
       <c r="D31" t="n">
-        <v>49.30969533499524</v>
+        <v>49.30969533499527</v>
       </c>
       <c r="E31" t="n">
-        <v>48.25744519077469</v>
+        <v>48.25744519077472</v>
       </c>
       <c r="F31" t="n">
-        <v>48.724369518961</v>
+        <v>48.72436951896103</v>
       </c>
       <c r="G31" t="n">
-        <v>64.75147754526344</v>
+        <v>64.75147754526347</v>
       </c>
       <c r="H31" t="n">
-        <v>53.34609793795933</v>
+        <v>53.34609793795936</v>
       </c>
       <c r="I31" t="n">
-        <v>33.08368730955451</v>
+        <v>33.08368730955425</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66232683265956</v>
+        <v>34.66232683265933</v>
       </c>
       <c r="S31" t="n">
-        <v>105.0262857884477</v>
+        <v>105.0262857884478</v>
       </c>
       <c r="T31" t="n">
         <v>127.5577801408553</v>
@@ -3013,7 +3013,7 @@
         <v>181.0633585622552</v>
       </c>
       <c r="X31" t="n">
-        <v>126.7084605580583</v>
+        <v>126.7084605580584</v>
       </c>
       <c r="Y31" t="n">
         <v>117.583328314126</v>
@@ -3029,7 +3029,7 @@
         <v>287.8716252173193</v>
       </c>
       <c r="C32" t="n">
-        <v>275.882942175001</v>
+        <v>275.8829421750011</v>
       </c>
       <c r="D32" t="n">
         <v>266.864246219529</v>
@@ -3047,7 +3047,7 @@
         <v>221.6087210113936</v>
       </c>
       <c r="I32" t="n">
-        <v>47.57772831531521</v>
+        <v>47.57772831531523</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>70.54719260666941</v>
       </c>
       <c r="T32" t="n">
-        <v>117.4676296620864</v>
+        <v>117.4676296620872</v>
       </c>
       <c r="U32" t="n">
-        <v>150.0608464256002</v>
+        <v>150.0608464255999</v>
       </c>
       <c r="V32" t="n">
         <v>231.3780024574984</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.85006423600237</v>
+        <v>40.85006423600236</v>
       </c>
       <c r="S33" t="n">
         <v>145.7858681427258</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.48833609201635</v>
+        <v>79.48833609201637</v>
       </c>
       <c r="C34" t="n">
-        <v>65.68833093741684</v>
+        <v>65.68833093741685</v>
       </c>
       <c r="D34" t="n">
-        <v>49.30969533499523</v>
+        <v>49.30969533499524</v>
       </c>
       <c r="E34" t="n">
-        <v>48.25744519077467</v>
+        <v>48.25744519077469</v>
       </c>
       <c r="F34" t="n">
-        <v>48.72436951896098</v>
+        <v>48.724369518961</v>
       </c>
       <c r="G34" t="n">
-        <v>64.75147754526343</v>
+        <v>64.75147754526344</v>
       </c>
       <c r="H34" t="n">
-        <v>53.34609793795931</v>
+        <v>53.34609793795934</v>
       </c>
       <c r="I34" t="n">
-        <v>33.08368730955449</v>
+        <v>33.08368730955451</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66232683265955</v>
+        <v>34.66232683265911</v>
       </c>
       <c r="S34" t="n">
         <v>105.0262857884477</v>
       </c>
       <c r="T34" t="n">
-        <v>127.5577801408552</v>
+        <v>127.5577801408555</v>
       </c>
       <c r="U34" t="n">
-        <v>182.0733530450871</v>
+        <v>182.0733530450872</v>
       </c>
       <c r="V34" t="n">
-        <v>155.8964724916419</v>
+        <v>155.896472491642</v>
       </c>
       <c r="W34" t="n">
         <v>181.0633585622552</v>
@@ -3266,19 +3266,19 @@
         <v>238.6094131399917</v>
       </c>
       <c r="C35" t="n">
-        <v>226.6207300976734</v>
+        <v>226.6207300976735</v>
       </c>
       <c r="D35" t="n">
         <v>217.6020341422014</v>
       </c>
       <c r="E35" t="n">
-        <v>239.3441717121069</v>
+        <v>239.344171712107</v>
       </c>
       <c r="F35" t="n">
         <v>258.5159878000841</v>
       </c>
       <c r="G35" t="n">
-        <v>259.897285797177</v>
+        <v>259.8972857971771</v>
       </c>
       <c r="H35" t="n">
         <v>172.346508934066</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.28498052934145</v>
+        <v>21.28498052934148</v>
       </c>
       <c r="T35" t="n">
-        <v>68.20541758475883</v>
+        <v>68.20541758475838</v>
       </c>
       <c r="U35" t="n">
         <v>100.7986343482728</v>
@@ -3329,7 +3329,7 @@
         <v>207.4158898581277</v>
       </c>
       <c r="X35" t="n">
-        <v>226.7161480908743</v>
+        <v>226.7161480908744</v>
       </c>
       <c r="Y35" t="n">
         <v>238.1127458870731</v>
@@ -3360,7 +3360,7 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H36" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I36" t="n">
         <v>57.53030467618051</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.85006423600237</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S36" t="n">
         <v>145.7858681427258</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.22612401468876</v>
+        <v>30.22612401468879</v>
       </c>
       <c r="C37" t="n">
-        <v>16.42611886008925</v>
+        <v>16.42611886008928</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04748325766763628</v>
+        <v>0.0474832576676647</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>12.48732065732546</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15.48926546793584</v>
+        <v>15.48926546793587</v>
       </c>
       <c r="H37" t="n">
-        <v>4.083885860631726</v>
+        <v>4.083885860631754</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.48732065732553</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.76407371112012</v>
+        <v>55.76407371112015</v>
       </c>
       <c r="T37" t="n">
-        <v>78.29556806352765</v>
+        <v>78.29556806352768</v>
       </c>
       <c r="U37" t="n">
         <v>132.8111409677596</v>
@@ -3487,10 +3487,10 @@
         <v>131.8011464849276</v>
       </c>
       <c r="X37" t="n">
-        <v>77.44624848073073</v>
+        <v>77.44624848073076</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.32111623679842</v>
+        <v>68.32111623679845</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21.28498052934107</v>
+        <v>21.28498052934148</v>
       </c>
       <c r="T38" t="n">
-        <v>68.20541758475886</v>
+        <v>68.20541758475838</v>
       </c>
       <c r="U38" t="n">
         <v>100.7986343482732</v>
@@ -3597,7 +3597,7 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H39" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I39" t="n">
         <v>57.53030467618051</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.85006423600237</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S39" t="n">
         <v>145.7858681427258</v>
@@ -3661,7 +3661,7 @@
         <v>30.22612401468879</v>
       </c>
       <c r="C40" t="n">
-        <v>16.42611886008928</v>
+        <v>28.91343951741474</v>
       </c>
       <c r="D40" t="n">
         <v>0.0474832576676647</v>
@@ -3676,7 +3676,7 @@
         <v>15.48926546793587</v>
       </c>
       <c r="H40" t="n">
-        <v>4.083885860631755</v>
+        <v>4.083885860631754</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>131.8011464849276</v>
       </c>
       <c r="X40" t="n">
-        <v>89.93356913805601</v>
+        <v>77.44624848073076</v>
       </c>
       <c r="Y40" t="n">
         <v>68.32111623679845</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.28498052934145</v>
+        <v>21.28498052934107</v>
       </c>
       <c r="T41" t="n">
         <v>68.20541758475883</v>
       </c>
       <c r="U41" t="n">
-        <v>100.7986343482737</v>
+        <v>100.7986343482732</v>
       </c>
       <c r="V41" t="n">
         <v>182.1157903801708</v>
@@ -3834,7 +3834,7 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H42" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I42" t="n">
         <v>57.53030467618051</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.85006423600237</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S42" t="n">
         <v>145.7858681427258</v>
@@ -3901,7 +3901,7 @@
         <v>16.42611886008925</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04748325766763628</v>
+        <v>12.53480391499347</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>15.48926546793584</v>
       </c>
       <c r="H43" t="n">
-        <v>4.083885860631726</v>
+        <v>4.083885860631725</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>78.29556806352765</v>
       </c>
       <c r="U43" t="n">
-        <v>145.2984616250851</v>
+        <v>132.8111409677596</v>
       </c>
       <c r="V43" t="n">
         <v>106.6342604143144</v>
@@ -3977,22 +3977,22 @@
         <v>238.6094131399917</v>
       </c>
       <c r="C44" t="n">
-        <v>226.6207300976734</v>
+        <v>226.6207300976735</v>
       </c>
       <c r="D44" t="n">
-        <v>217.6020341422014</v>
+        <v>217.6020341422015</v>
       </c>
       <c r="E44" t="n">
-        <v>239.3441717121069</v>
+        <v>239.344171712107</v>
       </c>
       <c r="F44" t="n">
-        <v>258.5159878000841</v>
+        <v>258.5159878000842</v>
       </c>
       <c r="G44" t="n">
-        <v>259.897285797177</v>
+        <v>259.8972857971771</v>
       </c>
       <c r="H44" t="n">
-        <v>172.346508934066</v>
+        <v>172.3465089340661</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.28498052934145</v>
+        <v>21.28498052934151</v>
       </c>
       <c r="T44" t="n">
-        <v>68.20541758475883</v>
+        <v>68.20541758475889</v>
       </c>
       <c r="U44" t="n">
-        <v>100.7986343482728</v>
+        <v>100.7986343482723</v>
       </c>
       <c r="V44" t="n">
-        <v>182.1157903801708</v>
+        <v>182.1157903801709</v>
       </c>
       <c r="W44" t="n">
-        <v>207.4158898581277</v>
+        <v>207.4158898581278</v>
       </c>
       <c r="X44" t="n">
-        <v>226.7161480908743</v>
+        <v>226.7161480908744</v>
       </c>
       <c r="Y44" t="n">
         <v>238.1127458870731</v>
@@ -4071,10 +4071,10 @@
         <v>127.1458850439559</v>
       </c>
       <c r="H45" t="n">
-        <v>96.08621347328979</v>
+        <v>96.08621347328977</v>
       </c>
       <c r="I45" t="n">
-        <v>57.53030467618051</v>
+        <v>57.5303046761805</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.85006423600237</v>
+        <v>40.85006423600235</v>
       </c>
       <c r="S45" t="n">
         <v>145.7858681427258</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.22612401468876</v>
+        <v>30.22612401468882</v>
       </c>
       <c r="C46" t="n">
-        <v>16.42611886008925</v>
+        <v>28.91343951741446</v>
       </c>
       <c r="D46" t="n">
-        <v>0.04748325766763628</v>
+        <v>0.04748325766769312</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15.48926546793584</v>
+        <v>15.4892654679359</v>
       </c>
       <c r="H46" t="n">
-        <v>4.083885860631726</v>
+        <v>4.083885860631781</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.76407371112012</v>
+        <v>55.76407371112018</v>
       </c>
       <c r="T46" t="n">
-        <v>78.29556806352765</v>
+        <v>78.29556806352771</v>
       </c>
       <c r="U46" t="n">
         <v>132.8111409677596</v>
@@ -4195,13 +4195,13 @@
         <v>106.6342604143144</v>
       </c>
       <c r="W46" t="n">
-        <v>131.8011464849276</v>
+        <v>131.8011464849277</v>
       </c>
       <c r="X46" t="n">
-        <v>77.44624848073073</v>
+        <v>77.44624848073079</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.808436894124</v>
+        <v>68.32111623679847</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>352.6716711928445</v>
+        <v>325.167791801367</v>
       </c>
       <c r="C11" t="n">
-        <v>352.6716711928445</v>
+        <v>312.2948544778998</v>
       </c>
       <c r="D11" t="n">
-        <v>352.6716711928445</v>
+        <v>312.2948544778998</v>
       </c>
       <c r="E11" t="n">
-        <v>352.6716711928445</v>
+        <v>312.2948544778998</v>
       </c>
       <c r="F11" t="n">
-        <v>352.6716711928445</v>
+        <v>312.2948544778998</v>
       </c>
       <c r="G11" t="n">
-        <v>40.38935010748627</v>
+        <v>312.2948544778998</v>
       </c>
       <c r="H11" t="n">
-        <v>40.38935010748627</v>
+        <v>88.44766153709806</v>
       </c>
       <c r="I11" t="n">
-        <v>40.38935010748627</v>
+        <v>40.38935010748659</v>
       </c>
       <c r="J11" t="n">
-        <v>40.38935010748627</v>
+        <v>40.38935010748659</v>
       </c>
       <c r="K11" t="n">
-        <v>40.38935010748627</v>
+        <v>40.38935010748659</v>
       </c>
       <c r="L11" t="n">
-        <v>197.1854888056217</v>
+        <v>197.1854888056374</v>
       </c>
       <c r="M11" t="n">
-        <v>686.3765289723478</v>
+        <v>686.3765289723635</v>
       </c>
       <c r="N11" t="n">
-        <v>1162.21236320822</v>
+        <v>1162.212363208236</v>
       </c>
       <c r="O11" t="n">
-        <v>1559.287659039772</v>
+        <v>1559.287659039788</v>
       </c>
       <c r="P11" t="n">
-        <v>1866.0247775093</v>
+        <v>1866.024777509316</v>
       </c>
       <c r="Q11" t="n">
-        <v>2019.467505374314</v>
+        <v>2019.467505374329</v>
       </c>
       <c r="R11" t="n">
-        <v>2019.467505374314</v>
+        <v>2019.467505374329</v>
       </c>
       <c r="S11" t="n">
-        <v>1948.207714862527</v>
+        <v>1948.207714862542</v>
       </c>
       <c r="T11" t="n">
-        <v>1829.553543486682</v>
+        <v>1829.553543486697</v>
       </c>
       <c r="U11" t="n">
-        <v>1677.976930935571</v>
+        <v>1677.976930935586</v>
       </c>
       <c r="V11" t="n">
-        <v>1444.261776938098</v>
+        <v>1444.261776938112</v>
       </c>
       <c r="W11" t="n">
-        <v>1184.990966902284</v>
+        <v>1184.990966902299</v>
       </c>
       <c r="X11" t="n">
-        <v>906.224946530363</v>
+        <v>906.2249465303773</v>
       </c>
       <c r="Y11" t="n">
-        <v>643.4510906042782</v>
+        <v>615.9472112128007</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.9474938110127</v>
+        <v>441.2912944629049</v>
       </c>
       <c r="C12" t="n">
-        <v>450.2438210519674</v>
+        <v>382.851741810445</v>
       </c>
       <c r="D12" t="n">
-        <v>311.4051840421795</v>
+        <v>244.013104800657</v>
       </c>
       <c r="E12" t="n">
-        <v>200.2492149641132</v>
+        <v>200.2492149641136</v>
       </c>
       <c r="F12" t="n">
-        <v>65.55541691398751</v>
+        <v>168.8195370205733</v>
       </c>
       <c r="G12" t="n">
-        <v>40.38935010748627</v>
+        <v>40.38935010748659</v>
       </c>
       <c r="H12" t="n">
-        <v>40.38935010748627</v>
+        <v>40.38935010748659</v>
       </c>
       <c r="I12" t="n">
-        <v>40.38935010748627</v>
+        <v>40.38935010748659</v>
       </c>
       <c r="J12" t="n">
-        <v>40.38935010748627</v>
+        <v>40.38935010748659</v>
       </c>
       <c r="K12" t="n">
-        <v>40.38935010748627</v>
+        <v>40.38935010748659</v>
       </c>
       <c r="L12" t="n">
-        <v>40.38935010748627</v>
+        <v>40.38935010748659</v>
       </c>
       <c r="M12" t="n">
-        <v>540.2075576876289</v>
+        <v>504.8652248399821</v>
       </c>
       <c r="N12" t="n">
-        <v>1004.683432420113</v>
+        <v>1004.683432420129</v>
       </c>
       <c r="O12" t="n">
-        <v>1466.447222003772</v>
+        <v>1466.447222003788</v>
       </c>
       <c r="P12" t="n">
-        <v>1824.374254772437</v>
+        <v>1824.374254772452</v>
       </c>
       <c r="Q12" t="n">
-        <v>2019.467505374314</v>
+        <v>2019.467505374329</v>
       </c>
       <c r="R12" t="n">
-        <v>1978.204814226836</v>
+        <v>1978.204814226852</v>
       </c>
       <c r="S12" t="n">
-        <v>1830.946361557416</v>
+        <v>1830.946361557432</v>
       </c>
       <c r="T12" t="n">
-        <v>1643.463668712326</v>
+        <v>1643.463668712342</v>
       </c>
       <c r="U12" t="n">
-        <v>1424.988502170085</v>
+        <v>1424.988502170101</v>
       </c>
       <c r="V12" t="n">
-        <v>1196.592879618419</v>
+        <v>1196.592879618435</v>
       </c>
       <c r="W12" t="n">
-        <v>955.2770108517292</v>
+        <v>955.2770108517449</v>
       </c>
       <c r="X12" t="n">
-        <v>757.3600227295237</v>
+        <v>757.3600227295394</v>
       </c>
       <c r="Y12" t="n">
-        <v>668.1028164856881</v>
+        <v>564.8386963791182</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>407.2187478599358</v>
+        <v>407.2187478599336</v>
       </c>
       <c r="C13" t="n">
-        <v>340.8668984282016</v>
+        <v>340.8668984281993</v>
       </c>
       <c r="D13" t="n">
-        <v>291.0591253625499</v>
+        <v>291.0591253625474</v>
       </c>
       <c r="E13" t="n">
-        <v>242.3142312304542</v>
+        <v>242.3142312304516</v>
       </c>
       <c r="F13" t="n">
-        <v>193.0976963628169</v>
+        <v>193.0976963628176</v>
       </c>
       <c r="G13" t="n">
-        <v>127.6921634888134</v>
+        <v>127.692163488814</v>
       </c>
       <c r="H13" t="n">
-        <v>73.80721607673325</v>
+        <v>73.80721607673371</v>
       </c>
       <c r="I13" t="n">
-        <v>40.38935010748627</v>
+        <v>40.38935010748659</v>
       </c>
       <c r="J13" t="n">
-        <v>100.0663101762934</v>
+        <v>100.0663101762936</v>
       </c>
       <c r="K13" t="n">
-        <v>263.358003861522</v>
+        <v>263.3580038615221</v>
       </c>
       <c r="L13" t="n">
-        <v>501.6167201631968</v>
+        <v>501.6167201631967</v>
       </c>
       <c r="M13" t="n">
-        <v>759.242868347272</v>
+        <v>759.2428683472717</v>
       </c>
       <c r="N13" t="n">
         <v>1016.384227728628</v>
       </c>
       <c r="O13" t="n">
-        <v>1250.703459207874</v>
+        <v>1250.703459207873</v>
       </c>
       <c r="P13" t="n">
-        <v>1444.527105458431</v>
+        <v>1444.52710545843</v>
       </c>
       <c r="Q13" t="n">
-        <v>1528.491173945944</v>
+        <v>1528.491173945943</v>
       </c>
       <c r="R13" t="n">
-        <v>1493.478722599823</v>
+        <v>1493.478722599822</v>
       </c>
       <c r="S13" t="n">
         <v>1387.391565237754</v>
       </c>
       <c r="T13" t="n">
-        <v>1258.545322671234</v>
+        <v>1258.545322671233</v>
       </c>
       <c r="U13" t="n">
-        <v>1074.632844847913</v>
+        <v>1074.632844847912</v>
       </c>
       <c r="V13" t="n">
-        <v>917.1616605129217</v>
+        <v>917.1616605129202</v>
       </c>
       <c r="W13" t="n">
-        <v>734.2693791369063</v>
+        <v>734.2693791369047</v>
       </c>
       <c r="X13" t="n">
-        <v>606.2810351388675</v>
+        <v>606.2810351388658</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.5099964377301</v>
+        <v>487.5099964377281</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>737.7720354387274</v>
+        <v>737.7720354387172</v>
       </c>
       <c r="C14" t="n">
-        <v>459.1023968781201</v>
+        <v>459.10239687811</v>
       </c>
       <c r="D14" t="n">
-        <v>189.5425522119294</v>
+        <v>189.542552211919</v>
       </c>
       <c r="E14" t="n">
-        <v>96.69974640984512</v>
+        <v>96.69974640984495</v>
       </c>
       <c r="F14" t="n">
-        <v>96.69974640984512</v>
+        <v>96.69974640984495</v>
       </c>
       <c r="G14" t="n">
-        <v>96.69974640984512</v>
+        <v>96.69974640984495</v>
       </c>
       <c r="H14" t="n">
-        <v>96.69974640984512</v>
+        <v>96.69974640984495</v>
       </c>
       <c r="I14" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="J14" t="n">
-        <v>167.0192570278582</v>
+        <v>167.019257027858</v>
       </c>
       <c r="K14" t="n">
-        <v>175.6704192122493</v>
+        <v>175.6704192122393</v>
       </c>
       <c r="L14" t="n">
-        <v>609.789732442997</v>
+        <v>609.789732442987</v>
       </c>
       <c r="M14" t="n">
-        <v>1098.980772609723</v>
+        <v>1098.980772609713</v>
       </c>
       <c r="N14" t="n">
-        <v>1574.816606845595</v>
+        <v>1574.816606845585</v>
       </c>
       <c r="O14" t="n">
-        <v>1971.891902677147</v>
+        <v>1971.891902677137</v>
       </c>
       <c r="P14" t="n">
-        <v>2278.629021146675</v>
+        <v>2278.629021146665</v>
       </c>
       <c r="Q14" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.071749011679</v>
       </c>
       <c r="R14" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.071749011679</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.811958499902</v>
+        <v>2360.811958499891</v>
       </c>
       <c r="T14" t="n">
-        <v>2242.157787124057</v>
+        <v>2242.157787124046</v>
       </c>
       <c r="U14" t="n">
-        <v>2090.581174572946</v>
+        <v>2090.581174572936</v>
       </c>
       <c r="V14" t="n">
-        <v>1856.866020575472</v>
+        <v>1856.866020575462</v>
       </c>
       <c r="W14" t="n">
-        <v>1597.595210539659</v>
+        <v>1597.595210539649</v>
       </c>
       <c r="X14" t="n">
-        <v>1318.829190167738</v>
+        <v>1318.829190167728</v>
       </c>
       <c r="Y14" t="n">
-        <v>1028.551454850161</v>
+        <v>1028.551454850151</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>818.0234972352168</v>
+        <v>818.0234972352068</v>
       </c>
       <c r="C15" t="n">
-        <v>656.3198244761716</v>
+        <v>656.3198244761616</v>
       </c>
       <c r="D15" t="n">
-        <v>517.4811874663836</v>
+        <v>517.4811874663736</v>
       </c>
       <c r="E15" t="n">
-        <v>370.4531775232549</v>
+        <v>370.4531775232448</v>
       </c>
       <c r="F15" t="n">
-        <v>235.7593794731292</v>
+        <v>235.7593794731192</v>
       </c>
       <c r="G15" t="n">
-        <v>145.6982162663851</v>
+        <v>107.3291925600325</v>
       </c>
       <c r="H15" t="n">
-        <v>48.64143498023378</v>
+        <v>106.7528538450624</v>
       </c>
       <c r="I15" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="J15" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="K15" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="L15" t="n">
-        <v>270.8648162213698</v>
+        <v>270.8648162213598</v>
       </c>
       <c r="M15" t="n">
-        <v>829.9797404626522</v>
+        <v>829.9797404626422</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.287676057488</v>
+        <v>1417.287676057478</v>
       </c>
       <c r="O15" t="n">
-        <v>1879.051465641147</v>
+        <v>1879.051465641137</v>
       </c>
       <c r="P15" t="n">
-        <v>2236.978498409811</v>
+        <v>2236.978498409801</v>
       </c>
       <c r="Q15" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.071749011679</v>
       </c>
       <c r="R15" t="n">
-        <v>2390.809057864211</v>
+        <v>2390.809057864201</v>
       </c>
       <c r="S15" t="n">
-        <v>2243.550605194791</v>
+        <v>2243.550605194781</v>
       </c>
       <c r="T15" t="n">
-        <v>2056.067912349701</v>
+        <v>2056.067912349691</v>
       </c>
       <c r="U15" t="n">
-        <v>1837.59274580746</v>
+        <v>1837.59274580745</v>
       </c>
       <c r="V15" t="n">
-        <v>1609.197123255794</v>
+        <v>1609.197123255784</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.881254489104</v>
+        <v>1367.881254489094</v>
       </c>
       <c r="X15" t="n">
-        <v>1169.964266366899</v>
+        <v>1169.964266366889</v>
       </c>
       <c r="Y15" t="n">
-        <v>977.4429400164778</v>
+        <v>977.4429400164678</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.4708327326836</v>
+        <v>415.4708327326835</v>
       </c>
       <c r="C16" t="n">
-        <v>349.1189833009494</v>
+        <v>349.1189833009493</v>
       </c>
       <c r="D16" t="n">
-        <v>299.3112102352976</v>
+        <v>299.3112102352974</v>
       </c>
       <c r="E16" t="n">
-        <v>250.5663161032019</v>
+        <v>250.5663161032017</v>
       </c>
       <c r="F16" t="n">
-        <v>201.3497812355646</v>
+        <v>201.3497812355643</v>
       </c>
       <c r="G16" t="n">
-        <v>135.9442483615611</v>
+        <v>135.9442483615607</v>
       </c>
       <c r="H16" t="n">
-        <v>82.05930094948098</v>
+        <v>82.05930094948053</v>
       </c>
       <c r="I16" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="J16" t="n">
-        <v>108.3183950490409</v>
+        <v>108.3183950490406</v>
       </c>
       <c r="K16" t="n">
-        <v>271.6100887342695</v>
+        <v>271.6100887342693</v>
       </c>
       <c r="L16" t="n">
-        <v>509.8688050359443</v>
+        <v>509.8688050359439</v>
       </c>
       <c r="M16" t="n">
-        <v>767.4949532200194</v>
+        <v>767.4949532200189</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.636312601376</v>
+        <v>1024.636312601375</v>
       </c>
       <c r="O16" t="n">
         <v>1258.955544080621</v>
@@ -5458,7 +5458,7 @@
         <v>1536.743258818691</v>
       </c>
       <c r="R16" t="n">
-        <v>1501.73080747257</v>
+        <v>1501.730807472571</v>
       </c>
       <c r="S16" t="n">
         <v>1395.643650110502</v>
@@ -5470,13 +5470,13 @@
         <v>1082.884929720661</v>
       </c>
       <c r="V16" t="n">
-        <v>925.4137453856694</v>
+        <v>925.4137453856695</v>
       </c>
       <c r="W16" t="n">
-        <v>742.521464009654</v>
+        <v>742.5214640096541</v>
       </c>
       <c r="X16" t="n">
-        <v>614.5331200116152</v>
+        <v>614.5331200116153</v>
       </c>
       <c r="Y16" t="n">
         <v>495.7620813104779</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1307.850359533023</v>
+        <v>1307.850359533018</v>
       </c>
       <c r="C17" t="n">
-        <v>1100.440511484203</v>
+        <v>1100.440511484198</v>
       </c>
       <c r="D17" t="n">
-        <v>902.1404573297992</v>
+        <v>902.1404573297948</v>
       </c>
       <c r="E17" t="n">
-        <v>681.8786480542785</v>
+        <v>681.8786480542747</v>
       </c>
       <c r="F17" t="n">
-        <v>442.2513679828197</v>
+        <v>442.251367982818</v>
       </c>
       <c r="G17" t="n">
-        <v>201.2288374092485</v>
+        <v>201.2288374092476</v>
       </c>
       <c r="H17" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="I17" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="J17" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="K17" t="n">
-        <v>358.292321821978</v>
+        <v>175.6704192122393</v>
       </c>
       <c r="L17" t="n">
-        <v>609.789732442997</v>
+        <v>609.789732442987</v>
       </c>
       <c r="M17" t="n">
-        <v>1098.980772609723</v>
+        <v>1098.980772609713</v>
       </c>
       <c r="N17" t="n">
-        <v>1574.816606845595</v>
+        <v>1574.816606845585</v>
       </c>
       <c r="O17" t="n">
-        <v>1971.891902677147</v>
+        <v>1971.891902677137</v>
       </c>
       <c r="P17" t="n">
-        <v>2278.629021146675</v>
+        <v>2278.629021146665</v>
       </c>
       <c r="Q17" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.071749011679</v>
       </c>
       <c r="R17" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.071749011679</v>
       </c>
       <c r="S17" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.071749011679</v>
       </c>
       <c r="T17" t="n">
-        <v>2384.677368147631</v>
+        <v>2384.677368147621</v>
       </c>
       <c r="U17" t="n">
-        <v>2304.360546108307</v>
+        <v>2304.360546108298</v>
       </c>
       <c r="V17" t="n">
-        <v>2141.90518262262</v>
+        <v>2141.905182622612</v>
       </c>
       <c r="W17" t="n">
-        <v>1953.894163098594</v>
+        <v>1953.894163098586</v>
       </c>
       <c r="X17" t="n">
-        <v>1746.38793323846</v>
+        <v>1746.387933238452</v>
       </c>
       <c r="Y17" t="n">
-        <v>1527.36998843267</v>
+        <v>1527.369988432664</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>818.0234972352168</v>
+        <v>818.0234972352068</v>
       </c>
       <c r="C18" t="n">
-        <v>656.3198244761716</v>
+        <v>656.3198244761616</v>
       </c>
       <c r="D18" t="n">
-        <v>517.4811874663836</v>
+        <v>517.4811874663736</v>
       </c>
       <c r="E18" t="n">
-        <v>370.4531775232549</v>
+        <v>466.933620094426</v>
       </c>
       <c r="F18" t="n">
-        <v>235.7593794731292</v>
+        <v>332.2398220443004</v>
       </c>
       <c r="G18" t="n">
-        <v>203.8096351312139</v>
+        <v>203.8096351312137</v>
       </c>
       <c r="H18" t="n">
-        <v>106.7528538450626</v>
+        <v>106.7528538450624</v>
       </c>
       <c r="I18" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="J18" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="L18" t="n">
-        <v>477.946197911141</v>
+        <v>270.8648162213598</v>
       </c>
       <c r="M18" t="n">
-        <v>829.9797404626522</v>
+        <v>829.9797404626422</v>
       </c>
       <c r="N18" t="n">
-        <v>1417.287676057488</v>
+        <v>1417.287676057478</v>
       </c>
       <c r="O18" t="n">
-        <v>1879.051465641147</v>
+        <v>1879.051465641137</v>
       </c>
       <c r="P18" t="n">
-        <v>2236.978498409811</v>
+        <v>2236.978498409801</v>
       </c>
       <c r="Q18" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.071749011679</v>
       </c>
       <c r="R18" t="n">
-        <v>2390.809057864211</v>
+        <v>2390.809057864201</v>
       </c>
       <c r="S18" t="n">
-        <v>2243.550605194791</v>
+        <v>2243.550605194781</v>
       </c>
       <c r="T18" t="n">
-        <v>2056.067912349701</v>
+        <v>2056.067912349691</v>
       </c>
       <c r="U18" t="n">
-        <v>1837.59274580746</v>
+        <v>1837.59274580745</v>
       </c>
       <c r="V18" t="n">
-        <v>1609.197123255794</v>
+        <v>1609.197123255784</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.881254489104</v>
+        <v>1367.881254489094</v>
       </c>
       <c r="X18" t="n">
-        <v>1169.964266366899</v>
+        <v>1169.964266366889</v>
       </c>
       <c r="Y18" t="n">
-        <v>977.4429400164778</v>
+        <v>977.4429400164678</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="C19" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="D19" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="E19" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="F19" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="G19" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="H19" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="I19" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="J19" t="n">
-        <v>48.64143498023378</v>
+        <v>48.64143498023357</v>
       </c>
       <c r="K19" t="n">
-        <v>110.723964548998</v>
+        <v>110.7239645489977</v>
       </c>
       <c r="L19" t="n">
-        <v>247.7735167342083</v>
+        <v>247.773516734208</v>
       </c>
       <c r="M19" t="n">
-        <v>404.190500801819</v>
+        <v>404.1905008018188</v>
       </c>
       <c r="N19" t="n">
-        <v>560.1226960667109</v>
+        <v>560.1226960667107</v>
       </c>
       <c r="O19" t="n">
-        <v>693.2327634294921</v>
+        <v>693.2327634294919</v>
       </c>
       <c r="P19" t="n">
-        <v>785.8472455635847</v>
+        <v>785.8472455635845</v>
       </c>
       <c r="Q19" t="n">
-        <v>785.8472455635847</v>
+        <v>785.8472455635845</v>
       </c>
       <c r="R19" t="n">
-        <v>785.8472455635847</v>
+        <v>785.8472455635845</v>
       </c>
       <c r="S19" t="n">
-        <v>751.0198787133032</v>
+        <v>751.0198787133036</v>
       </c>
       <c r="T19" t="n">
-        <v>518.9095160401972</v>
+        <v>693.4334266585706</v>
       </c>
       <c r="U19" t="n">
-        <v>406.2568287286638</v>
+        <v>580.7807393470378</v>
       </c>
       <c r="V19" t="n">
-        <v>273.5451855860719</v>
+        <v>494.5693455238334</v>
       </c>
       <c r="W19" t="n">
-        <v>161.9126947218434</v>
+        <v>208.4129440412325</v>
       </c>
       <c r="X19" t="n">
-        <v>105.1841412355916</v>
+        <v>105.1841412355902</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.67289304624116</v>
+        <v>57.67289304624033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1307.850359533023</v>
+        <v>1307.850359533018</v>
       </c>
       <c r="C20" t="n">
-        <v>1100.440511484203</v>
+        <v>1100.440511484199</v>
       </c>
       <c r="D20" t="n">
-        <v>902.1404573297988</v>
+        <v>902.1404573297953</v>
       </c>
       <c r="E20" t="n">
-        <v>681.8786480542781</v>
+        <v>681.8786480542751</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2513679828212</v>
+        <v>442.2513679828185</v>
       </c>
       <c r="G20" t="n">
-        <v>201.2288374092485</v>
+        <v>201.2288374092477</v>
       </c>
       <c r="H20" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="I20" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="J20" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="K20" t="n">
-        <v>175.6704192122493</v>
+        <v>175.6704192122407</v>
       </c>
       <c r="L20" t="n">
-        <v>609.789732442997</v>
+        <v>609.7897324429883</v>
       </c>
       <c r="M20" t="n">
-        <v>1098.980772609723</v>
+        <v>1098.980772609714</v>
       </c>
       <c r="N20" t="n">
-        <v>1574.816606845595</v>
+        <v>1574.816606845587</v>
       </c>
       <c r="O20" t="n">
-        <v>1971.891902677147</v>
+        <v>1971.891902677139</v>
       </c>
       <c r="P20" t="n">
-        <v>2278.629021146675</v>
+        <v>2278.629021146667</v>
       </c>
       <c r="Q20" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.07174901168</v>
       </c>
       <c r="R20" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.07174901168</v>
       </c>
       <c r="S20" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.07174901168</v>
       </c>
       <c r="T20" t="n">
-        <v>2384.677368147631</v>
+        <v>2384.677368147622</v>
       </c>
       <c r="U20" t="n">
-        <v>2304.360546108307</v>
+        <v>2304.360546108298</v>
       </c>
       <c r="V20" t="n">
-        <v>2141.90518262262</v>
+        <v>2141.905182622613</v>
       </c>
       <c r="W20" t="n">
-        <v>1953.894163098594</v>
+        <v>1953.894163098587</v>
       </c>
       <c r="X20" t="n">
-        <v>1746.387933238459</v>
+        <v>1746.387933238453</v>
       </c>
       <c r="Y20" t="n">
-        <v>1527.36998843267</v>
+        <v>1527.369988432664</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>818.0234972352168</v>
+        <v>818.0234972352082</v>
       </c>
       <c r="C21" t="n">
-        <v>656.3198244761716</v>
+        <v>656.3198244761629</v>
       </c>
       <c r="D21" t="n">
-        <v>613.9616300375551</v>
+        <v>517.481187466375</v>
       </c>
       <c r="E21" t="n">
-        <v>466.9336200944263</v>
+        <v>370.4531775232462</v>
       </c>
       <c r="F21" t="n">
-        <v>332.2398220443006</v>
+        <v>332.2398220443005</v>
       </c>
       <c r="G21" t="n">
-        <v>203.8096351312139</v>
+        <v>203.8096351312137</v>
       </c>
       <c r="H21" t="n">
-        <v>106.7528538450626</v>
+        <v>106.7528538450624</v>
       </c>
       <c r="I21" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="J21" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="L21" t="n">
-        <v>270.8648162213698</v>
+        <v>270.8648162213611</v>
       </c>
       <c r="M21" t="n">
-        <v>829.9797404626522</v>
+        <v>829.9797404626436</v>
       </c>
       <c r="N21" t="n">
-        <v>1417.287676057488</v>
+        <v>1417.287676057479</v>
       </c>
       <c r="O21" t="n">
-        <v>1879.051465641147</v>
+        <v>1879.051465641138</v>
       </c>
       <c r="P21" t="n">
-        <v>2236.978498409811</v>
+        <v>2236.978498409803</v>
       </c>
       <c r="Q21" t="n">
-        <v>2432.071749011689</v>
+        <v>2432.07174901168</v>
       </c>
       <c r="R21" t="n">
-        <v>2390.809057864211</v>
+        <v>2390.809057864203</v>
       </c>
       <c r="S21" t="n">
-        <v>2243.550605194791</v>
+        <v>2243.550605194783</v>
       </c>
       <c r="T21" t="n">
-        <v>2056.067912349701</v>
+        <v>2056.067912349693</v>
       </c>
       <c r="U21" t="n">
-        <v>1837.59274580746</v>
+        <v>1837.592745807452</v>
       </c>
       <c r="V21" t="n">
-        <v>1609.197123255794</v>
+        <v>1609.197123255786</v>
       </c>
       <c r="W21" t="n">
-        <v>1367.881254489104</v>
+        <v>1367.881254489096</v>
       </c>
       <c r="X21" t="n">
-        <v>1169.964266366899</v>
+        <v>1169.96426636689</v>
       </c>
       <c r="Y21" t="n">
-        <v>977.4429400164778</v>
+        <v>977.4429400164692</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.64143498023378</v>
+        <v>95.14168429962479</v>
       </c>
       <c r="C22" t="n">
-        <v>48.64143498023378</v>
+        <v>95.14168429962479</v>
       </c>
       <c r="D22" t="n">
-        <v>48.64143498023378</v>
+        <v>95.14168429962479</v>
       </c>
       <c r="E22" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="F22" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="G22" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="H22" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="I22" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="J22" t="n">
-        <v>48.64143498023378</v>
+        <v>48.6414349802336</v>
       </c>
       <c r="K22" t="n">
-        <v>110.723964548998</v>
+        <v>110.7239645489978</v>
       </c>
       <c r="L22" t="n">
-        <v>247.7735167342083</v>
+        <v>247.7735167342081</v>
       </c>
       <c r="M22" t="n">
-        <v>404.190500801819</v>
+        <v>404.1905008018188</v>
       </c>
       <c r="N22" t="n">
-        <v>560.1226960667109</v>
+        <v>560.1226960667107</v>
       </c>
       <c r="O22" t="n">
-        <v>693.2327634294921</v>
+        <v>693.2327634294919</v>
       </c>
       <c r="P22" t="n">
-        <v>785.8472455635847</v>
+        <v>785.8472455635845</v>
       </c>
       <c r="Q22" t="n">
-        <v>768.252004640259</v>
+        <v>785.8472455635845</v>
       </c>
       <c r="R22" t="n">
-        <v>768.252004640259</v>
+        <v>785.8472455635845</v>
       </c>
       <c r="S22" t="n">
-        <v>558.900727171605</v>
+        <v>751.0198787133036</v>
       </c>
       <c r="T22" t="n">
-        <v>501.3142751168714</v>
+        <v>693.4334266585706</v>
       </c>
       <c r="U22" t="n">
-        <v>388.661587805338</v>
+        <v>580.7807393470378</v>
       </c>
       <c r="V22" t="n">
-        <v>302.450193982133</v>
+        <v>494.5693455238334</v>
       </c>
       <c r="W22" t="n">
-        <v>190.8177031179046</v>
+        <v>208.4129440412325</v>
       </c>
       <c r="X22" t="n">
-        <v>134.0891496316528</v>
+        <v>151.6843905549814</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.57790144230231</v>
+        <v>104.1731423656315</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1307.850359533022</v>
+        <v>1307.850359533018</v>
       </c>
       <c r="C23" t="n">
-        <v>1100.440511484202</v>
+        <v>1100.440511484198</v>
       </c>
       <c r="D23" t="n">
-        <v>902.1404573297978</v>
+        <v>902.1404573297946</v>
       </c>
       <c r="E23" t="n">
-        <v>681.8786480542771</v>
+        <v>681.8786480542744</v>
       </c>
       <c r="F23" t="n">
-        <v>442.2513679828198</v>
+        <v>442.2513679828178</v>
       </c>
       <c r="G23" t="n">
-        <v>201.2288374092485</v>
+        <v>201.2288374092476</v>
       </c>
       <c r="H23" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="I23" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="J23" t="n">
-        <v>167.0192570278582</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="K23" t="n">
-        <v>175.670419212248</v>
+        <v>175.6704192122384</v>
       </c>
       <c r="L23" t="n">
-        <v>609.7897324429956</v>
+        <v>609.7897324429861</v>
       </c>
       <c r="M23" t="n">
-        <v>1098.980772609722</v>
+        <v>1098.980772609712</v>
       </c>
       <c r="N23" t="n">
-        <v>1574.816606845594</v>
+        <v>1574.816606845584</v>
       </c>
       <c r="O23" t="n">
-        <v>1971.891902677146</v>
+        <v>1971.891902677136</v>
       </c>
       <c r="P23" t="n">
-        <v>2278.629021146674</v>
+        <v>2278.629021146664</v>
       </c>
       <c r="Q23" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011678</v>
       </c>
       <c r="R23" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011678</v>
       </c>
       <c r="S23" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011678</v>
       </c>
       <c r="T23" t="n">
-        <v>2384.677368147629</v>
+        <v>2384.677368147622</v>
       </c>
       <c r="U23" t="n">
-        <v>2304.360546108305</v>
+        <v>2304.360546108298</v>
       </c>
       <c r="V23" t="n">
-        <v>2141.905182622619</v>
+        <v>2141.905182622612</v>
       </c>
       <c r="W23" t="n">
-        <v>1953.894163098593</v>
+        <v>1953.894163098586</v>
       </c>
       <c r="X23" t="n">
-        <v>1746.387933238458</v>
+        <v>1746.387933238453</v>
       </c>
       <c r="Y23" t="n">
-        <v>1527.369988432669</v>
+        <v>1527.369988432664</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>818.0234972352155</v>
+        <v>818.0234972352059</v>
       </c>
       <c r="C24" t="n">
-        <v>656.3198244761702</v>
+        <v>656.3198244761606</v>
       </c>
       <c r="D24" t="n">
-        <v>517.4811874663823</v>
+        <v>517.4811874663727</v>
       </c>
       <c r="E24" t="n">
-        <v>370.4531775232535</v>
+        <v>370.4531775232439</v>
       </c>
       <c r="F24" t="n">
-        <v>235.7593794731278</v>
+        <v>235.7593794731183</v>
       </c>
       <c r="G24" t="n">
-        <v>203.8096351312138</v>
+        <v>107.3291925600315</v>
       </c>
       <c r="H24" t="n">
-        <v>106.7528538450625</v>
+        <v>106.7528538450624</v>
       </c>
       <c r="I24" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="J24" t="n">
-        <v>136.518761626161</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="K24" t="n">
-        <v>136.518761626161</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="L24" t="n">
-        <v>270.8648162213684</v>
+        <v>477.9461979111408</v>
       </c>
       <c r="M24" t="n">
-        <v>829.9797404626509</v>
+        <v>829.9797404626413</v>
       </c>
       <c r="N24" t="n">
-        <v>1417.287676057486</v>
+        <v>1417.287676057477</v>
       </c>
       <c r="O24" t="n">
-        <v>1879.051465641146</v>
+        <v>1879.051465641136</v>
       </c>
       <c r="P24" t="n">
-        <v>2236.97849840981</v>
+        <v>2236.978498409801</v>
       </c>
       <c r="Q24" t="n">
-        <v>2432.071749011687</v>
+        <v>2432.071749011678</v>
       </c>
       <c r="R24" t="n">
-        <v>2390.80905786421</v>
+        <v>2390.8090578642</v>
       </c>
       <c r="S24" t="n">
-        <v>2243.55060519479</v>
+        <v>2243.55060519478</v>
       </c>
       <c r="T24" t="n">
-        <v>2056.0679123497</v>
+        <v>2056.06791234969</v>
       </c>
       <c r="U24" t="n">
-        <v>1837.592745807459</v>
+        <v>1837.59274580745</v>
       </c>
       <c r="V24" t="n">
-        <v>1609.197123255793</v>
+        <v>1609.197123255783</v>
       </c>
       <c r="W24" t="n">
-        <v>1367.881254489103</v>
+        <v>1367.881254489093</v>
       </c>
       <c r="X24" t="n">
-        <v>1169.964266366898</v>
+        <v>1169.964266366888</v>
       </c>
       <c r="Y24" t="n">
-        <v>977.4429400164764</v>
+        <v>977.4429400164669</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="C25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="D25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="E25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="F25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="G25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="H25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="I25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="J25" t="n">
-        <v>48.64143498023375</v>
+        <v>48.64143498023356</v>
       </c>
       <c r="K25" t="n">
-        <v>110.7239645489979</v>
+        <v>110.7239645489977</v>
       </c>
       <c r="L25" t="n">
-        <v>247.7735167342082</v>
+        <v>247.773516734208</v>
       </c>
       <c r="M25" t="n">
-        <v>404.1905008018189</v>
+        <v>404.1905008018188</v>
       </c>
       <c r="N25" t="n">
         <v>560.1226960667107</v>
@@ -6169,28 +6169,28 @@
         <v>785.8472455635845</v>
       </c>
       <c r="R25" t="n">
-        <v>785.8472455635845</v>
+        <v>739.3469962441932</v>
       </c>
       <c r="S25" t="n">
-        <v>751.019878713303</v>
+        <v>704.5196293939123</v>
       </c>
       <c r="T25" t="n">
-        <v>693.4334266585695</v>
+        <v>646.9331773391793</v>
       </c>
       <c r="U25" t="n">
-        <v>406.2568287286636</v>
+        <v>534.2804900276465</v>
       </c>
       <c r="V25" t="n">
-        <v>273.5451855860719</v>
+        <v>448.0690962044422</v>
       </c>
       <c r="W25" t="n">
-        <v>161.9126947218434</v>
+        <v>161.9126947218413</v>
       </c>
       <c r="X25" t="n">
-        <v>105.1841412355916</v>
+        <v>105.1841412355901</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.67289304624113</v>
+        <v>57.67289304624031</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1804.808136045491</v>
+        <v>1804.80813604549</v>
       </c>
       <c r="C26" t="n">
-        <v>1526.138497484884</v>
+        <v>1526.138497484883</v>
       </c>
       <c r="D26" t="n">
         <v>1256.578652818692</v>
       </c>
       <c r="E26" t="n">
-        <v>965.0570530313846</v>
+        <v>965.0570530313844</v>
       </c>
       <c r="F26" t="n">
-        <v>654.1699824481404</v>
+        <v>654.1699824481402</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8876613627822</v>
+        <v>341.887661362782</v>
       </c>
       <c r="H26" t="n">
         <v>118.0404684219804</v>
       </c>
       <c r="I26" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J26" t="n">
         <v>289.5691431564579</v>
       </c>
       <c r="K26" t="n">
-        <v>599.2200299982021</v>
+        <v>700.4291941146664</v>
       </c>
       <c r="L26" t="n">
         <v>1134.548507345414</v>
       </c>
       <c r="M26" t="n">
-        <v>1724.948711628605</v>
+        <v>1714.479684777814</v>
       </c>
       <c r="N26" t="n">
         <v>2291.524683130151</v>
@@ -6242,13 +6242,13 @@
         <v>2789.809143078167</v>
       </c>
       <c r="P26" t="n">
-        <v>3197.755425664159</v>
+        <v>3197.75542566416</v>
       </c>
       <c r="Q26" t="n">
-        <v>3452.407317645637</v>
+        <v>3452.407317645638</v>
       </c>
       <c r="R26" t="n">
-        <v>3499.107849618451</v>
+        <v>3499.107849618452</v>
       </c>
       <c r="S26" t="n">
         <v>3427.848059106665</v>
@@ -6260,16 +6260,16 @@
         <v>3157.617275179708</v>
       </c>
       <c r="V26" t="n">
-        <v>2923.902121182236</v>
+        <v>2923.902121182235</v>
       </c>
       <c r="W26" t="n">
-        <v>2664.631311146422</v>
+        <v>2664.631311146421</v>
       </c>
       <c r="X26" t="n">
-        <v>2385.865290774501</v>
+        <v>2385.8652907745</v>
       </c>
       <c r="Y26" t="n">
-        <v>2095.587555456924</v>
+        <v>2095.587555456923</v>
       </c>
     </row>
     <row r="27">
@@ -6300,13 +6300,13 @@
         <v>128.0935758571978</v>
       </c>
       <c r="I27" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J27" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="K27" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="L27" t="n">
         <v>499.2869199232762</v>
@@ -6361,10 +6361,10 @@
         <v>436.8115547448187</v>
       </c>
       <c r="C28" t="n">
-        <v>370.4597053130845</v>
+        <v>370.4597053130846</v>
       </c>
       <c r="D28" t="n">
-        <v>320.6519322474327</v>
+        <v>320.6519322474328</v>
       </c>
       <c r="E28" t="n">
         <v>271.9070381153371</v>
@@ -6379,7 +6379,7 @@
         <v>103.400022961616</v>
       </c>
       <c r="I28" t="n">
-        <v>69.98215699236903</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J28" t="n">
         <v>129.6591170611761</v>
@@ -6391,22 +6391,22 @@
         <v>531.2095270480795</v>
       </c>
       <c r="M28" t="n">
-        <v>788.8356752321545</v>
+        <v>788.8356752321547</v>
       </c>
       <c r="N28" t="n">
         <v>1045.977034613511</v>
       </c>
       <c r="O28" t="n">
-        <v>1280.296266092756</v>
+        <v>1280.296266092757</v>
       </c>
       <c r="P28" t="n">
-        <v>1474.119912343313</v>
+        <v>1474.119912343314</v>
       </c>
       <c r="Q28" t="n">
         <v>1558.083980830826</v>
       </c>
       <c r="R28" t="n">
-        <v>1523.071529484705</v>
+        <v>1523.071529484706</v>
       </c>
       <c r="S28" t="n">
         <v>1416.984372122637</v>
@@ -6418,16 +6418,16 @@
         <v>1104.225651732796</v>
       </c>
       <c r="V28" t="n">
-        <v>946.7544673978045</v>
+        <v>946.7544673978047</v>
       </c>
       <c r="W28" t="n">
-        <v>763.8621860217892</v>
+        <v>763.8621860217893</v>
       </c>
       <c r="X28" t="n">
-        <v>635.8738420237504</v>
+        <v>635.8738420237505</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.102803322613</v>
+        <v>517.1028033226131</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1804.80813604549</v>
+        <v>1804.808136045491</v>
       </c>
       <c r="C29" t="n">
-        <v>1526.138497484882</v>
+        <v>1526.138497484884</v>
       </c>
       <c r="D29" t="n">
         <v>1256.578652818692</v>
@@ -6449,64 +6449,64 @@
         <v>965.0570530313846</v>
       </c>
       <c r="F29" t="n">
-        <v>654.1699824481404</v>
+        <v>654.1699824481403</v>
       </c>
       <c r="G29" t="n">
-        <v>341.8876613627822</v>
+        <v>341.8876613627821</v>
       </c>
       <c r="H29" t="n">
-        <v>118.0404684219803</v>
+        <v>118.0404684219804</v>
       </c>
       <c r="I29" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J29" t="n">
-        <v>188.3599790399934</v>
+        <v>289.5691431564578</v>
       </c>
       <c r="K29" t="n">
-        <v>599.2200299982021</v>
+        <v>700.4291941146662</v>
       </c>
       <c r="L29" t="n">
         <v>1134.548507345414</v>
       </c>
       <c r="M29" t="n">
-        <v>1724.948711628605</v>
+        <v>1714.479684777815</v>
       </c>
       <c r="N29" t="n">
-        <v>2301.993709980941</v>
+        <v>2291.524683130152</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.809143078166</v>
+        <v>2789.809143078168</v>
       </c>
       <c r="P29" t="n">
-        <v>3197.755425664158</v>
+        <v>3197.75542566416</v>
       </c>
       <c r="Q29" t="n">
-        <v>3452.407317645636</v>
+        <v>3452.407317645638</v>
       </c>
       <c r="R29" t="n">
-        <v>3499.10784961845</v>
+        <v>3499.107849618452</v>
       </c>
       <c r="S29" t="n">
-        <v>3427.848059106664</v>
+        <v>3427.848059106665</v>
       </c>
       <c r="T29" t="n">
-        <v>3309.193887730819</v>
+        <v>3309.19388773082</v>
       </c>
       <c r="U29" t="n">
         <v>3157.617275179708</v>
       </c>
       <c r="V29" t="n">
-        <v>2923.902121182235</v>
+        <v>2923.902121182236</v>
       </c>
       <c r="W29" t="n">
-        <v>2664.631311146421</v>
+        <v>2664.631311146422</v>
       </c>
       <c r="X29" t="n">
-        <v>2385.8652907745</v>
+        <v>2385.865290774501</v>
       </c>
       <c r="Y29" t="n">
-        <v>2095.587555456923</v>
+        <v>2095.587555456924</v>
       </c>
     </row>
     <row r="30">
@@ -6531,34 +6531,34 @@
         <v>353.5805440564359</v>
       </c>
       <c r="G30" t="n">
-        <v>225.1503571433491</v>
+        <v>225.1503571433492</v>
       </c>
       <c r="H30" t="n">
-        <v>128.0935758571978</v>
+        <v>128.0935758571979</v>
       </c>
       <c r="I30" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J30" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="K30" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="L30" t="n">
-        <v>388.6859808046764</v>
+        <v>388.6859808046777</v>
       </c>
       <c r="M30" t="n">
-        <v>947.8009050459589</v>
+        <v>947.8009050459599</v>
       </c>
       <c r="N30" t="n">
-        <v>1535.108840640794</v>
+        <v>1535.108840640795</v>
       </c>
       <c r="O30" t="n">
         <v>1996.872630224454</v>
       </c>
       <c r="P30" t="n">
-        <v>2354.799662993118</v>
+        <v>2354.799662993119</v>
       </c>
       <c r="Q30" t="n">
         <v>2549.892913594995</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>436.8115547448187</v>
+        <v>436.8115547448185</v>
       </c>
       <c r="C31" t="n">
-        <v>370.4597053130846</v>
+        <v>370.4597053130843</v>
       </c>
       <c r="D31" t="n">
-        <v>320.6519322474327</v>
+        <v>320.6519322474326</v>
       </c>
       <c r="E31" t="n">
-        <v>271.9070381153371</v>
+        <v>271.9070381153369</v>
       </c>
       <c r="F31" t="n">
-        <v>222.6905032476997</v>
+        <v>222.6905032476995</v>
       </c>
       <c r="G31" t="n">
-        <v>157.2849703736962</v>
+        <v>157.2849703736959</v>
       </c>
       <c r="H31" t="n">
-        <v>103.400022961616</v>
+        <v>103.4000229616158</v>
       </c>
       <c r="I31" t="n">
-        <v>69.98215699236901</v>
+        <v>69.98215699236904</v>
       </c>
       <c r="J31" t="n">
         <v>129.6591170611761</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9508107464048</v>
+        <v>292.9508107464047</v>
       </c>
       <c r="L31" t="n">
-        <v>531.2095270480795</v>
+        <v>531.2095270480794</v>
       </c>
       <c r="M31" t="n">
-        <v>788.8356752321547</v>
+        <v>788.8356752321542</v>
       </c>
       <c r="N31" t="n">
         <v>1045.977034613511</v>
       </c>
       <c r="O31" t="n">
-        <v>1280.296266092757</v>
+        <v>1280.296266092756</v>
       </c>
       <c r="P31" t="n">
-        <v>1474.119912343314</v>
+        <v>1474.119912343313</v>
       </c>
       <c r="Q31" t="n">
         <v>1558.083980830826</v>
       </c>
       <c r="R31" t="n">
-        <v>1523.071529484706</v>
+        <v>1523.071529484705</v>
       </c>
       <c r="S31" t="n">
         <v>1416.984372122637</v>
@@ -6655,16 +6655,16 @@
         <v>1104.225651732796</v>
       </c>
       <c r="V31" t="n">
-        <v>946.7544673978047</v>
+        <v>946.7544673978044</v>
       </c>
       <c r="W31" t="n">
-        <v>763.8621860217893</v>
+        <v>763.8621860217891</v>
       </c>
       <c r="X31" t="n">
-        <v>635.8738420237505</v>
+        <v>635.8738420237503</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.1028033226131</v>
+        <v>517.1028033226129</v>
       </c>
     </row>
     <row r="32">
@@ -6683,16 +6683,16 @@
         <v>1256.578652818692</v>
       </c>
       <c r="E32" t="n">
-        <v>965.0570530313843</v>
+        <v>965.0570530313839</v>
       </c>
       <c r="F32" t="n">
-        <v>654.1699824481401</v>
+        <v>654.1699824481398</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8876613627819</v>
+        <v>341.8876613627815</v>
       </c>
       <c r="H32" t="n">
-        <v>118.0404684219803</v>
+        <v>118.0404684219804</v>
       </c>
       <c r="I32" t="n">
         <v>69.98215699236901</v>
@@ -6701,22 +6701,22 @@
         <v>289.5691431564579</v>
       </c>
       <c r="K32" t="n">
-        <v>599.2200299982021</v>
+        <v>700.4291941146664</v>
       </c>
       <c r="L32" t="n">
-        <v>1124.079480494622</v>
+        <v>1235.757671461879</v>
       </c>
       <c r="M32" t="n">
-        <v>1714.479684777813</v>
+        <v>1815.688848894278</v>
       </c>
       <c r="N32" t="n">
-        <v>2291.52468313015</v>
+        <v>2392.733847246614</v>
       </c>
       <c r="O32" t="n">
-        <v>2789.809143078166</v>
+        <v>2891.018307194631</v>
       </c>
       <c r="P32" t="n">
-        <v>3197.755425664158</v>
+        <v>3298.964589780623</v>
       </c>
       <c r="Q32" t="n">
         <v>3452.407317645636</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>436.8115547448185</v>
+        <v>436.8115547448186</v>
       </c>
       <c r="C34" t="n">
-        <v>370.4597053130843</v>
+        <v>370.4597053130844</v>
       </c>
       <c r="D34" t="n">
-        <v>320.6519322474326</v>
+        <v>320.6519322474327</v>
       </c>
       <c r="E34" t="n">
-        <v>271.9070381153369</v>
+        <v>271.907038115337</v>
       </c>
       <c r="F34" t="n">
         <v>222.6905032476996</v>
@@ -6856,52 +6856,52 @@
         <v>69.98215699236901</v>
       </c>
       <c r="J34" t="n">
-        <v>129.6591170611757</v>
+        <v>129.6591170611761</v>
       </c>
       <c r="K34" t="n">
-        <v>292.9508107464043</v>
+        <v>292.9508107464047</v>
       </c>
       <c r="L34" t="n">
-        <v>531.2095270480791</v>
+        <v>531.2095270480795</v>
       </c>
       <c r="M34" t="n">
-        <v>788.8356752321542</v>
+        <v>788.8356752321546</v>
       </c>
       <c r="N34" t="n">
         <v>1045.977034613511</v>
       </c>
       <c r="O34" t="n">
-        <v>1280.296266092756</v>
+        <v>1280.296266092757</v>
       </c>
       <c r="P34" t="n">
-        <v>1474.119912343313</v>
+        <v>1474.119912343314</v>
       </c>
       <c r="Q34" t="n">
         <v>1558.083980830826</v>
       </c>
       <c r="R34" t="n">
-        <v>1523.071529484705</v>
+        <v>1523.071529484706</v>
       </c>
       <c r="S34" t="n">
-        <v>1416.984372122637</v>
+        <v>1416.984372122638</v>
       </c>
       <c r="T34" t="n">
-        <v>1288.138129556116</v>
+        <v>1288.138129556117</v>
       </c>
       <c r="U34" t="n">
-        <v>1104.225651732796</v>
+        <v>1104.225651732797</v>
       </c>
       <c r="V34" t="n">
-        <v>946.7544673978042</v>
+        <v>946.7544673978048</v>
       </c>
       <c r="W34" t="n">
-        <v>763.8621860217888</v>
+        <v>763.8621860217894</v>
       </c>
       <c r="X34" t="n">
-        <v>635.8738420237502</v>
+        <v>635.8738420237506</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.1028033226128</v>
+        <v>517.102803322613</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1214.083264671161</v>
       </c>
       <c r="D35" t="n">
-        <v>994.2832301840895</v>
+        <v>994.2832301840897</v>
       </c>
       <c r="E35" t="n">
-        <v>752.5214405759007</v>
+        <v>752.5214405759009</v>
       </c>
       <c r="F35" t="n">
         <v>491.3941801717754</v>
@@ -6929,22 +6929,22 @@
         <v>228.8716692655361</v>
       </c>
       <c r="H35" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="I35" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="J35" t="n">
-        <v>173.1621085514776</v>
+        <v>173.1621085514777</v>
       </c>
       <c r="K35" t="n">
-        <v>482.8129953932216</v>
+        <v>482.8129953932219</v>
       </c>
       <c r="L35" t="n">
         <v>916.9323086239694</v>
       </c>
       <c r="M35" t="n">
-        <v>1406.123348790695</v>
+        <v>1406.123348790696</v>
       </c>
       <c r="N35" t="n">
         <v>1881.959183026568</v>
@@ -6965,22 +6965,22 @@
         <v>2717.714344859993</v>
       </c>
       <c r="T35" t="n">
-        <v>2648.819983663267</v>
+        <v>2648.819983663268</v>
       </c>
       <c r="U35" t="n">
-        <v>2547.003181291274</v>
+        <v>2547.003181291275</v>
       </c>
       <c r="V35" t="n">
-        <v>2363.047837472919</v>
+        <v>2363.04783747292</v>
       </c>
       <c r="W35" t="n">
         <v>2153.536837616225</v>
       </c>
       <c r="X35" t="n">
-        <v>1924.530627423422</v>
+        <v>1924.530627423423</v>
       </c>
       <c r="Y35" t="n">
-        <v>1684.012702284964</v>
+        <v>1684.012702284965</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>112.895705368682</v>
       </c>
       <c r="I36" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="J36" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="K36" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="L36" t="n">
-        <v>373.4881103161605</v>
+        <v>373.4881103161604</v>
       </c>
       <c r="M36" t="n">
-        <v>932.6030345574429</v>
+        <v>932.6030345574428</v>
       </c>
       <c r="N36" t="n">
         <v>1519.910970152278</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.19514857084764</v>
+        <v>103.8086037802674</v>
       </c>
       <c r="C37" t="n">
-        <v>74.60310931823223</v>
+        <v>87.21656452765197</v>
       </c>
       <c r="D37" t="n">
-        <v>74.55514643169926</v>
+        <v>87.16860164111897</v>
       </c>
       <c r="E37" t="n">
-        <v>74.55514643169926</v>
+        <v>74.55514643169931</v>
       </c>
       <c r="F37" t="n">
-        <v>74.55514643169926</v>
+        <v>74.55514643169931</v>
       </c>
       <c r="G37" t="n">
-        <v>58.90942373681456</v>
+        <v>58.9094237368146</v>
       </c>
       <c r="H37" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="I37" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="J37" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="K37" t="n">
         <v>116.8668160726174</v>
@@ -7102,43 +7102,43 @@
         <v>253.9163682578277</v>
       </c>
       <c r="M37" t="n">
-        <v>410.3333523254383</v>
+        <v>410.3333523254385</v>
       </c>
       <c r="N37" t="n">
-        <v>566.2655475903302</v>
+        <v>566.2655475903304</v>
       </c>
       <c r="O37" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531116</v>
       </c>
       <c r="P37" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="Q37" t="n">
-        <v>779.3766418777843</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="R37" t="n">
-        <v>779.3766418777843</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="S37" t="n">
-        <v>723.0492946948347</v>
+        <v>735.6627499042546</v>
       </c>
       <c r="T37" t="n">
-        <v>643.9628623074329</v>
+        <v>656.5763175168529</v>
       </c>
       <c r="U37" t="n">
-        <v>509.8101946632314</v>
+        <v>522.4236498726513</v>
       </c>
       <c r="V37" t="n">
-        <v>402.0988205073583</v>
+        <v>414.7122757167782</v>
       </c>
       <c r="W37" t="n">
-        <v>268.9663493104617</v>
+        <v>281.5798045198816</v>
       </c>
       <c r="X37" t="n">
-        <v>190.7378154915418</v>
+        <v>203.3512707009616</v>
       </c>
       <c r="Y37" t="n">
-        <v>121.7265869695232</v>
+        <v>134.340042178943</v>
       </c>
     </row>
     <row r="38">
@@ -7154,49 +7154,49 @@
         <v>1214.083264671162</v>
       </c>
       <c r="D38" t="n">
-        <v>994.2832301840898</v>
+        <v>994.28323018409</v>
       </c>
       <c r="E38" t="n">
-        <v>752.5214405759009</v>
+        <v>752.5214405759011</v>
       </c>
       <c r="F38" t="n">
-        <v>491.3941801717754</v>
+        <v>491.3941801717756</v>
       </c>
       <c r="G38" t="n">
         <v>228.8716692655361</v>
       </c>
       <c r="H38" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="I38" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J38" t="n">
-        <v>173.1621085514778</v>
+        <v>173.1621085514777</v>
       </c>
       <c r="K38" t="n">
-        <v>482.8129953932219</v>
+        <v>482.8129953932223</v>
       </c>
       <c r="L38" t="n">
-        <v>916.9323086239696</v>
+        <v>916.93230862397</v>
       </c>
       <c r="M38" t="n">
         <v>1406.123348790696</v>
       </c>
       <c r="N38" t="n">
-        <v>1881.959183026568</v>
+        <v>1881.959183026569</v>
       </c>
       <c r="O38" t="n">
-        <v>2279.03447885812</v>
+        <v>2279.034478858121</v>
       </c>
       <c r="P38" t="n">
-        <v>2585.771597327648</v>
+        <v>2585.771597327649</v>
       </c>
       <c r="Q38" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.214325192662</v>
       </c>
       <c r="R38" t="n">
-        <v>2739.214325192661</v>
+        <v>2739.214325192662</v>
       </c>
       <c r="S38" t="n">
         <v>2717.714344859994</v>
@@ -7205,7 +7205,7 @@
         <v>2648.819983663268</v>
       </c>
       <c r="U38" t="n">
-        <v>2547.003181291274</v>
+        <v>2547.003181291275</v>
       </c>
       <c r="V38" t="n">
         <v>2363.04783747292</v>
@@ -7214,7 +7214,7 @@
         <v>2153.536837616226</v>
       </c>
       <c r="X38" t="n">
-        <v>1924.530627423423</v>
+        <v>1924.530627423424</v>
       </c>
       <c r="Y38" t="n">
         <v>1684.012702284965</v>
@@ -7248,19 +7248,19 @@
         <v>112.895705368682</v>
       </c>
       <c r="I39" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J39" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="K39" t="n">
-        <v>331.4872536322483</v>
+        <v>331.4872536322484</v>
       </c>
       <c r="L39" t="n">
-        <v>373.4881103161605</v>
+        <v>373.4881103161604</v>
       </c>
       <c r="M39" t="n">
-        <v>932.6030345574429</v>
+        <v>932.6030345574428</v>
       </c>
       <c r="N39" t="n">
         <v>1519.910970152278</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.19514857084775</v>
+        <v>103.8086037802674</v>
       </c>
       <c r="C40" t="n">
         <v>74.60310931823231</v>
@@ -7324,13 +7324,13 @@
         <v>58.9094237368146</v>
       </c>
       <c r="H40" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="I40" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="J40" t="n">
-        <v>54.78428650385323</v>
+        <v>54.78428650385324</v>
       </c>
       <c r="K40" t="n">
         <v>116.8668160726174</v>
@@ -7339,43 +7339,43 @@
         <v>253.9163682578277</v>
       </c>
       <c r="M40" t="n">
-        <v>410.3333523254383</v>
+        <v>410.3333523254385</v>
       </c>
       <c r="N40" t="n">
-        <v>566.2655475903302</v>
+        <v>566.2655475903304</v>
       </c>
       <c r="O40" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531116</v>
       </c>
       <c r="P40" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="Q40" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="R40" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="S40" t="n">
-        <v>735.6627499042544</v>
+        <v>735.6627499042546</v>
       </c>
       <c r="T40" t="n">
-        <v>656.5763175168527</v>
+        <v>656.5763175168529</v>
       </c>
       <c r="U40" t="n">
-        <v>522.423649872651</v>
+        <v>522.4236498726513</v>
       </c>
       <c r="V40" t="n">
-        <v>414.7122757167779</v>
+        <v>414.7122757167782</v>
       </c>
       <c r="W40" t="n">
-        <v>281.5798045198813</v>
+        <v>281.5798045198816</v>
       </c>
       <c r="X40" t="n">
-        <v>190.7378154915419</v>
+        <v>203.3512707009616</v>
       </c>
       <c r="Y40" t="n">
-        <v>121.7265869695233</v>
+        <v>134.340042178943</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1442.99309305265</v>
       </c>
       <c r="C41" t="n">
-        <v>1214.083264671161</v>
+        <v>1214.083264671162</v>
       </c>
       <c r="D41" t="n">
-        <v>994.2832301840892</v>
+        <v>994.2832301840897</v>
       </c>
       <c r="E41" t="n">
-        <v>752.5214405759004</v>
+        <v>752.5214405759009</v>
       </c>
       <c r="F41" t="n">
-        <v>491.3941801717749</v>
+        <v>491.3941801717754</v>
       </c>
       <c r="G41" t="n">
-        <v>228.8716692655361</v>
+        <v>228.871669265536</v>
       </c>
       <c r="H41" t="n">
         <v>54.78428650385323</v>
@@ -7409,13 +7409,13 @@
         <v>54.78428650385323</v>
       </c>
       <c r="J41" t="n">
-        <v>173.162108551478</v>
+        <v>173.1621085514777</v>
       </c>
       <c r="K41" t="n">
-        <v>482.8129953932221</v>
+        <v>482.8129953932219</v>
       </c>
       <c r="L41" t="n">
-        <v>916.9323086239697</v>
+        <v>916.9323086239696</v>
       </c>
       <c r="M41" t="n">
         <v>1406.123348790696</v>
@@ -7448,7 +7448,7 @@
         <v>2363.04783747292</v>
       </c>
       <c r="W41" t="n">
-        <v>2153.536837616225</v>
+        <v>2153.536837616226</v>
       </c>
       <c r="X41" t="n">
         <v>1924.530627423423</v>
@@ -7491,13 +7491,13 @@
         <v>54.78428650385323</v>
       </c>
       <c r="K42" t="n">
-        <v>331.4872536322483</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="L42" t="n">
-        <v>373.4881103161605</v>
+        <v>373.4881103161604</v>
       </c>
       <c r="M42" t="n">
-        <v>932.6030345574429</v>
+        <v>932.6030345574428</v>
       </c>
       <c r="N42" t="n">
         <v>1519.910970152278</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.19514857084764</v>
+        <v>103.8086037802677</v>
       </c>
       <c r="C43" t="n">
-        <v>74.60310931823223</v>
+        <v>87.21656452765225</v>
       </c>
       <c r="D43" t="n">
         <v>74.55514643169926</v>
@@ -7576,43 +7576,43 @@
         <v>253.9163682578277</v>
       </c>
       <c r="M43" t="n">
-        <v>410.3333523254383</v>
+        <v>410.3333523254385</v>
       </c>
       <c r="N43" t="n">
-        <v>566.2655475903302</v>
+        <v>566.2655475903304</v>
       </c>
       <c r="O43" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531116</v>
       </c>
       <c r="P43" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="Q43" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="R43" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="S43" t="n">
-        <v>735.6627499042544</v>
+        <v>735.6627499042546</v>
       </c>
       <c r="T43" t="n">
-        <v>656.5763175168527</v>
+        <v>656.5763175168529</v>
       </c>
       <c r="U43" t="n">
-        <v>509.8101946632314</v>
+        <v>522.4236498726514</v>
       </c>
       <c r="V43" t="n">
-        <v>402.0988205073583</v>
+        <v>414.7122757167783</v>
       </c>
       <c r="W43" t="n">
-        <v>268.9663493104617</v>
+        <v>281.5798045198817</v>
       </c>
       <c r="X43" t="n">
-        <v>190.7378154915418</v>
+        <v>203.3512707009618</v>
       </c>
       <c r="Y43" t="n">
-        <v>121.7265869695232</v>
+        <v>134.3400421789432</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1442.993093052649</v>
+        <v>1442.99309305265</v>
       </c>
       <c r="C44" t="n">
         <v>1214.083264671161</v>
       </c>
       <c r="D44" t="n">
-        <v>994.283230184089</v>
+        <v>994.2832301840895</v>
       </c>
       <c r="E44" t="n">
-        <v>752.5214405759002</v>
+        <v>752.5214405759007</v>
       </c>
       <c r="F44" t="n">
-        <v>491.3941801717754</v>
+        <v>491.3941801717755</v>
       </c>
       <c r="G44" t="n">
         <v>228.8716692655361</v>
       </c>
       <c r="H44" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="I44" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="J44" t="n">
-        <v>173.1621085514776</v>
+        <v>173.1621085514777</v>
       </c>
       <c r="K44" t="n">
-        <v>482.8129953932217</v>
+        <v>482.8129953932219</v>
       </c>
       <c r="L44" t="n">
-        <v>916.9323086239693</v>
+        <v>916.9323086239692</v>
       </c>
       <c r="M44" t="n">
         <v>1406.123348790695</v>
@@ -7679,19 +7679,19 @@
         <v>2648.819983663267</v>
       </c>
       <c r="U44" t="n">
-        <v>2547.003181291274</v>
+        <v>2547.003181291275</v>
       </c>
       <c r="V44" t="n">
-        <v>2363.047837472919</v>
+        <v>2363.04783747292</v>
       </c>
       <c r="W44" t="n">
-        <v>2153.536837616224</v>
+        <v>2153.536837616225</v>
       </c>
       <c r="X44" t="n">
-        <v>1924.530627423422</v>
+        <v>1924.530627423423</v>
       </c>
       <c r="Y44" t="n">
-        <v>1684.012702284964</v>
+        <v>1684.012702284965</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>112.895705368682</v>
       </c>
       <c r="I45" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="J45" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="K45" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="L45" t="n">
-        <v>373.4881103161605</v>
+        <v>373.4881103161604</v>
       </c>
       <c r="M45" t="n">
-        <v>932.6030345574429</v>
+        <v>932.6030345574428</v>
       </c>
       <c r="N45" t="n">
         <v>1519.910970152278</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.19514857084764</v>
+        <v>103.8086037802672</v>
       </c>
       <c r="C46" t="n">
-        <v>74.60310931823223</v>
+        <v>74.6031093182324</v>
       </c>
       <c r="D46" t="n">
-        <v>74.55514643169926</v>
+        <v>74.55514643169937</v>
       </c>
       <c r="E46" t="n">
-        <v>74.55514643169926</v>
+        <v>74.55514643169937</v>
       </c>
       <c r="F46" t="n">
-        <v>74.55514643169926</v>
+        <v>74.55514643169937</v>
       </c>
       <c r="G46" t="n">
-        <v>58.90942373681456</v>
+        <v>58.90942373681462</v>
       </c>
       <c r="H46" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="I46" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="J46" t="n">
-        <v>54.78428650385322</v>
+        <v>54.78428650385323</v>
       </c>
       <c r="K46" t="n">
         <v>116.8668160726174</v>
@@ -7813,34 +7813,34 @@
         <v>253.9163682578277</v>
       </c>
       <c r="M46" t="n">
-        <v>410.3333523254383</v>
+        <v>410.3333523254385</v>
       </c>
       <c r="N46" t="n">
-        <v>566.2655475903302</v>
+        <v>566.2655475903304</v>
       </c>
       <c r="O46" t="n">
-        <v>699.3756149531115</v>
+        <v>699.3756149531116</v>
       </c>
       <c r="P46" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="Q46" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="R46" t="n">
-        <v>791.990097087204</v>
+        <v>791.9900970872043</v>
       </c>
       <c r="S46" t="n">
-        <v>735.6627499042544</v>
+        <v>735.6627499042546</v>
       </c>
       <c r="T46" t="n">
-        <v>656.5763175168527</v>
+        <v>656.5763175168529</v>
       </c>
       <c r="U46" t="n">
-        <v>522.4236498726511</v>
+        <v>522.4236498726513</v>
       </c>
       <c r="V46" t="n">
-        <v>414.712275716778</v>
+        <v>414.7122757167781</v>
       </c>
       <c r="W46" t="n">
         <v>281.5798045198815</v>
@@ -7849,7 +7849,7 @@
         <v>203.3512707009615</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.7265869695232</v>
+        <v>134.3400421789428</v>
       </c>
     </row>
   </sheetData>
@@ -8693,7 +8693,7 @@
         <v>108.6103627649948</v>
       </c>
       <c r="L11" t="n">
-        <v>262.8351601957753</v>
+        <v>262.8351601957908</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8775,10 +8775,10 @@
         <v>48.45127421681292</v>
       </c>
       <c r="M12" t="n">
-        <v>545.5209094799093</v>
+        <v>509.8215833711749</v>
       </c>
       <c r="N12" t="n">
-        <v>499.0722978967695</v>
+        <v>534.7716240055195</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8927,7 +8927,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>117.3489104259959</v>
+        <v>117.348910425986</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -9003,13 +9003,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.15336953250394</v>
+        <v>75.15336953250393</v>
       </c>
       <c r="K15" t="n">
-        <v>64.30686152201369</v>
+        <v>64.30686152201368</v>
       </c>
       <c r="L15" t="n">
-        <v>272.9193360765462</v>
+        <v>272.9193360765364</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9164,10 +9164,10 @@
         <v>100.2520420998329</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>236.9224680498491</v>
       </c>
       <c r="L17" t="n">
-        <v>358.4930106229303</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9246,10 +9246,10 @@
         <v>64.30686152201368</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>272.9193360765364</v>
       </c>
       <c r="M18" t="n">
-        <v>396.2434700570493</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9401,7 +9401,7 @@
         <v>100.2520420998329</v>
       </c>
       <c r="K20" t="n">
-        <v>236.922468049859</v>
+        <v>236.9224680498504</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9483,7 +9483,7 @@
         <v>64.30686152201368</v>
       </c>
       <c r="L21" t="n">
-        <v>272.9193360765462</v>
+        <v>272.9193360765377</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>100.2520420998329</v>
       </c>
       <c r="K23" t="n">
-        <v>117.3489104259946</v>
+        <v>236.9224680498482</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9714,16 +9714,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>75.15336953250393</v>
       </c>
       <c r="K24" t="n">
         <v>64.30686152201368</v>
       </c>
       <c r="L24" t="n">
-        <v>184.1543596665174</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>396.2434700570385</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -10188,13 +10188,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>75.15336953250394</v>
+        <v>75.15336953250399</v>
       </c>
       <c r="K30" t="n">
-        <v>64.30686152201369</v>
+        <v>64.30686152201378</v>
       </c>
       <c r="L30" t="n">
-        <v>370.374328572679</v>
+        <v>370.3743285726804</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>75.15336953250394</v>
+        <v>75.15336953250393</v>
       </c>
       <c r="K33" t="n">
-        <v>64.30686152201369</v>
+        <v>64.30686152201368</v>
       </c>
       <c r="L33" t="n">
         <v>370.374328572679</v>
@@ -10662,13 +10662,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>75.15336953250394</v>
+        <v>75.15336953250392</v>
       </c>
       <c r="K36" t="n">
-        <v>64.30686152201369</v>
+        <v>64.30686152201366</v>
       </c>
       <c r="L36" t="n">
-        <v>370.3743285726788</v>
+        <v>370.3743285726787</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10823,7 +10823,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425146</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10899,13 +10899,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>75.15336953250394</v>
+        <v>75.15336953250392</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>90.87638197834036</v>
+        <v>90.87638197834016</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -11136,13 +11136,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.15336953250394</v>
+        <v>75.15336953250392</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>64.30686152201366</v>
       </c>
       <c r="L42" t="n">
-        <v>90.87638197834036</v>
+        <v>370.3743285726787</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236958</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>75.15336953250394</v>
+        <v>75.15336953250392</v>
       </c>
       <c r="K45" t="n">
-        <v>64.30686152201369</v>
+        <v>64.30686152201365</v>
       </c>
       <c r="L45" t="n">
-        <v>370.3743285726788</v>
+        <v>370.3743285726786</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.8829421750011</v>
+        <v>263.1387342247686</v>
       </c>
       <c r="D11" t="n">
-        <v>266.864246219529</v>
+        <v>266.8642462195292</v>
       </c>
       <c r="E11" t="n">
-        <v>288.6063837894346</v>
+        <v>288.6063837894347</v>
       </c>
       <c r="F11" t="n">
-        <v>307.7781998774117</v>
+        <v>307.7781998774119</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>309.1594978745048</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6087210113936</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.57772831531523</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.228840597577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.446132268436486e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>196.692006045371</v>
+        <v>196.6920060453814</v>
       </c>
       <c r="F14" t="n">
-        <v>307.7781998774117</v>
+        <v>307.7781998774118</v>
       </c>
       <c r="G14" t="n">
-        <v>309.1594978745046</v>
+        <v>309.1594978745047</v>
       </c>
       <c r="H14" t="n">
         <v>221.6087210113936</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.45982165881011e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1290842.584277865</v>
+        <v>1290842.584277867</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1366537.279808047</v>
+        <v>1366537.279808044</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1510745.992383896</v>
+        <v>1510745.992383895</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1510745.992383896</v>
+        <v>1510745.992383895</v>
       </c>
     </row>
     <row r="9">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>342836.5759456618</v>
+        <v>342836.5759456629</v>
       </c>
       <c r="F3" t="n">
-        <v>29555.46087811064</v>
+        <v>29555.46087810884</v>
       </c>
       <c r="G3" t="n">
-        <v>56437.75408533525</v>
+        <v>56437.75408533579</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95143.32741586951</v>
+        <v>95143.32741586956</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.19711258155959e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>56437.75408533525</v>
+        <v>56437.75408533582</v>
       </c>
       <c r="M3" t="n">
-        <v>117882.4882489361</v>
+        <v>117882.4882489371</v>
       </c>
       <c r="N3" t="n">
-        <v>25264.47989534284</v>
+        <v>25264.4798953413</v>
       </c>
       <c r="O3" t="n">
-        <v>25347.42903908047</v>
+        <v>25347.42903907986</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>406144.6554248994</v>
       </c>
       <c r="E4" t="n">
-        <v>265672.9839936034</v>
+        <v>265672.9839936036</v>
       </c>
       <c r="F4" t="n">
-        <v>275991.7514658779</v>
+        <v>275991.7514658776</v>
       </c>
       <c r="G4" t="n">
-        <v>322791.7341880637</v>
+        <v>322791.7341880639</v>
       </c>
       <c r="H4" t="n">
-        <v>322791.7341880637</v>
+        <v>322791.7341880639</v>
       </c>
       <c r="I4" t="n">
-        <v>322791.7341880637</v>
+        <v>322791.7341880638</v>
       </c>
       <c r="J4" t="n">
         <v>319321.5699076307</v>
       </c>
       <c r="K4" t="n">
-        <v>319321.5699076307</v>
+        <v>319321.5699076308</v>
       </c>
       <c r="L4" t="n">
         <v>319321.5699076307</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>42283.59905881005</v>
+        <v>42283.59905881029</v>
       </c>
       <c r="F5" t="n">
-        <v>48555.18356209816</v>
+        <v>48555.183562098</v>
       </c>
       <c r="G5" t="n">
-        <v>54486.01549734822</v>
+        <v>54486.01549734812</v>
       </c>
       <c r="H5" t="n">
-        <v>54486.01549734822</v>
+        <v>54486.01549734814</v>
       </c>
       <c r="I5" t="n">
-        <v>54486.0154973482</v>
+        <v>54486.0154973481</v>
       </c>
       <c r="J5" t="n">
-        <v>64774.13229132094</v>
+        <v>64774.13229132096</v>
       </c>
       <c r="K5" t="n">
-        <v>64774.13229132094</v>
+        <v>64774.13229132095</v>
       </c>
       <c r="L5" t="n">
         <v>64774.13229132094</v>
       </c>
       <c r="M5" t="n">
-        <v>57365.17562717779</v>
+        <v>57365.1756271778</v>
       </c>
       <c r="N5" t="n">
-        <v>57365.1756271778</v>
+        <v>57365.17562717781</v>
       </c>
       <c r="O5" t="n">
         <v>57365.1756271778</v>
       </c>
       <c r="P5" t="n">
-        <v>57365.17562717779</v>
+        <v>57365.1756271778</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439772.2554248994</v>
+        <v>-439776.6239973666</v>
       </c>
       <c r="C6" t="n">
-        <v>-439772.2554248994</v>
+        <v>-439776.6239973666</v>
       </c>
       <c r="D6" t="n">
-        <v>-439772.2554248994</v>
+        <v>-439776.6239973666</v>
       </c>
       <c r="E6" t="n">
-        <v>-650793.1589980753</v>
+        <v>-651078.832863412</v>
       </c>
       <c r="F6" t="n">
-        <v>-354102.3959060867</v>
+        <v>-354308.4083526214</v>
       </c>
       <c r="G6" t="n">
-        <v>-433715.5037707472</v>
+        <v>-433715.5037707477</v>
       </c>
       <c r="H6" t="n">
-        <v>-377277.7496854119</v>
+        <v>-377277.749685412</v>
       </c>
       <c r="I6" t="n">
-        <v>-377277.7496854119</v>
+        <v>-377277.7496854117</v>
       </c>
       <c r="J6" t="n">
         <v>-479239.0296148212</v>
       </c>
       <c r="K6" t="n">
-        <v>-384095.7021989516</v>
+        <v>-384095.7021989518</v>
       </c>
       <c r="L6" t="n">
-        <v>-440533.4562842869</v>
+        <v>-440533.4562842874</v>
       </c>
       <c r="M6" t="n">
-        <v>-493565.2594499625</v>
+        <v>-493565.2594499635</v>
       </c>
       <c r="N6" t="n">
-        <v>-400947.2510963692</v>
+        <v>-400947.2510963677</v>
       </c>
       <c r="O6" t="n">
-        <v>-401030.2002401068</v>
+        <v>-401030.2002401063</v>
       </c>
       <c r="P6" t="n">
         <v>-375682.7712010264</v>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>102.2314789055195</v>
+      </c>
+      <c r="F2" t="n">
         <v>102.2314789055196</v>
       </c>
-      <c r="F2" t="n">
-        <v>102.2314789055197</v>
-      </c>
       <c r="G2" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="H2" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="I2" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="J2" t="n">
         <v>102.2314789055196</v>
       </c>
       <c r="K2" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L2" t="n">
         <v>102.2314789055197</v>
       </c>
       <c r="M2" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="N2" t="n">
         <v>151.4936909828472</v>
@@ -26725,7 +26725,7 @@
         <v>151.4936909828473</v>
       </c>
       <c r="P2" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>137.3025127069891</v>
       </c>
       <c r="K3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069888</v>
       </c>
       <c r="L3" t="n">
         <v>137.3025127069891</v>
@@ -26777,7 +26777,7 @@
         <v>137.3025127069891</v>
       </c>
       <c r="P3" t="n">
-        <v>137.3025127069891</v>
+        <v>137.3025127069892</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.8668763435784</v>
+        <v>504.8668763435823</v>
       </c>
       <c r="F4" t="n">
-        <v>608.0179372529221</v>
+        <v>608.0179372529196</v>
       </c>
       <c r="G4" t="n">
-        <v>608.0179372529221</v>
+        <v>608.0179372529196</v>
       </c>
       <c r="H4" t="n">
-        <v>608.0179372529221</v>
+        <v>608.01793725292</v>
       </c>
       <c r="I4" t="n">
-        <v>608.0179372529218</v>
+        <v>608.0179372529194</v>
       </c>
       <c r="J4" t="n">
-        <v>874.7769624046128</v>
+        <v>874.776962404613</v>
       </c>
       <c r="K4" t="n">
-        <v>874.7769624046126</v>
+        <v>874.776962404613</v>
       </c>
       <c r="L4" t="n">
         <v>874.7769624046126</v>
       </c>
       <c r="M4" t="n">
-        <v>684.8035812981652</v>
+        <v>684.8035812981653</v>
       </c>
       <c r="N4" t="n">
-        <v>684.8035812981653</v>
+        <v>684.8035812981655</v>
       </c>
       <c r="O4" t="n">
         <v>684.8035812981653</v>
       </c>
       <c r="P4" t="n">
-        <v>684.8035812981652</v>
+        <v>684.8035812981653</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>70.54719260666906</v>
+        <v>70.54719260666974</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.68428629885057</v>
+        <v>31.6842862988498</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54719260666907</v>
+        <v>70.54719260666977</v>
       </c>
       <c r="M2" t="n">
-        <v>49.26221207732759</v>
+        <v>49.26221207732758</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.68428629885059</v>
+        <v>31.68428629884983</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.8668763435784</v>
+        <v>504.8668763435823</v>
       </c>
       <c r="F4" t="n">
-        <v>103.1510609093438</v>
+        <v>103.1510609093373</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>266.759025151691</v>
+        <v>266.7590251516935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>314.893495237131</v>
+        <v>314.8934952371351</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1510609093439</v>
+        <v>103.1510609093375</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>70.54719260666906</v>
+        <v>70.54719260666974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.68428629885057</v>
+        <v>31.6842862988498</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.8668763435784</v>
+        <v>504.8668763435823</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1510609093438</v>
+        <v>103.1510609093373</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="C11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="D11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="E11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="F11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="G11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="H11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>55.05922438752567</v>
       </c>
       <c r="S11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="T11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="U11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="V11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="W11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="X11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.2314789055196</v>
+        <v>35.51332045639712</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>35.5133204564118</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="G12" t="n">
-        <v>102.2314789055196</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>96.08621347328979</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>102.2314789055196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="C13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="D13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="E13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="F13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="J13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="K13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="L13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="M13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="N13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="O13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="P13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="R13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="S13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="T13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="U13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="V13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="W13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="X13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>55.05922438752567</v>
       </c>
       <c r="S14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>37.98533346927921</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.5156381454694</v>
       </c>
       <c r="I15" t="n">
-        <v>57.53030467618051</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="M16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="N16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="C17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="D17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="E17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="F17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="G17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="H17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="I17" t="n">
         <v>149.8092072208349</v>
@@ -28612,25 +28612,25 @@
         <v>55.05922438752567</v>
       </c>
       <c r="S17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="T17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="U17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="V17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="W17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="X17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="Y17" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
     </row>
     <row r="18">
@@ -28649,13 +28649,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>95.51563814546935</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>95.51563814545972</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28770,25 +28770,25 @@
         <v>136.8938057381792</v>
       </c>
       <c r="S19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="U19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="V19" t="n">
-        <v>126.7434246859956</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="W19" t="n">
-        <v>172.7786715121887</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>172.7786715121887</v>
+        <v>126.743424685992</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="C20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="D20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="E20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="F20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="G20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="H20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="I20" t="n">
         <v>149.8092072208349</v>
@@ -28852,22 +28852,22 @@
         <v>172.7786715121887</v>
       </c>
       <c r="T20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="U20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="V20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="W20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="X20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="Y20" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
     </row>
     <row r="21">
@@ -28883,13 +28883,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>95.51563814545975</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>95.51563814546812</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.1627132000882</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -28965,7 +28965,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>104.4536772700971</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.4192885140925</v>
       </c>
       <c r="R22" t="n">
         <v>136.8938057381792</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="T22" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="U22" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="V22" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="W22" t="n">
-        <v>172.7786715121887</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="Y22" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="C23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="D23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="E23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="F23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="G23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="H23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="I23" t="n">
         <v>149.8092072208349</v>
@@ -29089,22 +29089,22 @@
         <v>172.7786715121887</v>
       </c>
       <c r="T23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="U23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="V23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="W23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="X23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="Y23" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
     </row>
     <row r="24">
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>95.51563814546101</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.51563814547029</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29241,28 +29241,28 @@
         <v>17.4192885140925</v>
       </c>
       <c r="R25" t="n">
-        <v>136.8938057381792</v>
+        <v>90.85855891198182</v>
       </c>
       <c r="S25" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="T25" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="V25" t="n">
-        <v>126.7434246859958</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="W25" t="n">
-        <v>172.7786715121887</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
       <c r="Y25" t="n">
-        <v>172.7786715121887</v>
+        <v>172.7786715121893</v>
       </c>
     </row>
     <row r="26">
@@ -29299,16 +29299,16 @@
         <v>102.2314789055196</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>91.65670430876185</v>
+      </c>
+      <c r="N26" t="n">
         <v>102.2314789055196</v>
-      </c>
-      <c r="M26" t="n">
-        <v>102.2314789055196</v>
-      </c>
-      <c r="N26" t="n">
-        <v>91.65670430876145</v>
       </c>
       <c r="O26" t="n">
         <v>102.2314789055196</v>
@@ -29466,7 +29466,7 @@
         <v>102.2314789055196</v>
       </c>
       <c r="N28" t="n">
-        <v>102.2314789055196</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="O28" t="n">
         <v>102.2314789055196</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L29" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>102.2314789055197</v>
+        <v>91.65670430876293</v>
       </c>
       <c r="N29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O29" t="n">
-        <v>91.65670430876037</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="C31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="D31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="E31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="F31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="J31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="K31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="L31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="M31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="N31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="O31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="P31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="R31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="S31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="T31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="U31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="V31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="W31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="X31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.2314789055197</v>
+        <v>102.2314789055196</v>
       </c>
     </row>
     <row r="32">
@@ -29773,13 +29773,13 @@
         <v>102.2314789055197</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="L32" t="n">
-        <v>91.65670430876025</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="M32" t="n">
-        <v>102.2314789055197</v>
+        <v>91.65670430876071</v>
       </c>
       <c r="N32" t="n">
         <v>102.2314789055197</v>
@@ -29791,7 +29791,7 @@
         <v>102.2314789055197</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.2314789055197</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>102.2314789055197</v>
@@ -29928,7 +29928,7 @@
         <v>102.2314789055197</v>
       </c>
       <c r="J34" t="n">
-        <v>102.2314789055192</v>
+        <v>102.2314789055197</v>
       </c>
       <c r="K34" t="n">
         <v>102.2314789055197</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="C35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="D35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="E35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="F35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="G35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="H35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="I35" t="n">
-        <v>149.8092072208349</v>
+        <v>149.8092072208348</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752565</v>
       </c>
       <c r="S35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="T35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="U35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="V35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="W35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="X35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="Y35" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="C37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="D37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>138.0016034389689</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="H37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="I37" t="n">
         <v>135.3151662150742</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.931967856766976</v>
+        <v>17.41928851409249</v>
       </c>
       <c r="R37" t="n">
         <v>136.8938057381792</v>
       </c>
       <c r="S37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="T37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="U37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="V37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="W37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="X37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>151.4936909828472</v>
       </c>
       <c r="I38" t="n">
-        <v>149.8092072208349</v>
+        <v>149.8092072208348</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752565</v>
       </c>
       <c r="S38" t="n">
         <v>151.4936909828472</v>
@@ -30381,7 +30381,7 @@
         <v>151.4936909828472</v>
       </c>
       <c r="C40" t="n">
-        <v>151.4936909828472</v>
+        <v>139.0063703255218</v>
       </c>
       <c r="D40" t="n">
         <v>151.4936909828472</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409249</v>
       </c>
       <c r="R40" t="n">
         <v>136.8938057381792</v>
@@ -30444,7 +30444,7 @@
         <v>151.4936909828472</v>
       </c>
       <c r="X40" t="n">
-        <v>139.006370325522</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="Y40" t="n">
         <v>151.4936909828472</v>
@@ -30478,7 +30478,7 @@
         <v>151.4936909828473</v>
       </c>
       <c r="I41" t="n">
-        <v>149.8092072208349</v>
+        <v>149.8092072208348</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752565</v>
       </c>
       <c r="S41" t="n">
         <v>151.4936909828473</v>
@@ -30621,7 +30621,7 @@
         <v>151.4936909828473</v>
       </c>
       <c r="D43" t="n">
-        <v>151.4936909828473</v>
+        <v>139.0063703255214</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409249</v>
       </c>
       <c r="R43" t="n">
         <v>136.8938057381792</v>
@@ -30672,7 +30672,7 @@
         <v>151.4936909828473</v>
       </c>
       <c r="U43" t="n">
-        <v>139.0063703255217</v>
+        <v>151.4936909828473</v>
       </c>
       <c r="V43" t="n">
         <v>151.4936909828473</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="C44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="D44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="E44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="F44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="G44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="H44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="I44" t="n">
-        <v>149.8092072208349</v>
+        <v>149.8092072208348</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.05922438752567</v>
+        <v>55.05922438752565</v>
       </c>
       <c r="S44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="T44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="U44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="V44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="W44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="X44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="Y44" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
     </row>
     <row r="45">
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="C46" t="n">
-        <v>151.4936909828473</v>
+        <v>139.0063703255221</v>
       </c>
       <c r="D46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30867,16 +30867,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="H46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="I46" t="n">
         <v>135.3151662150742</v>
       </c>
       <c r="J46" t="n">
-        <v>41.95172126025992</v>
+        <v>41.95172126025991</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.4192885140925</v>
+        <v>17.41928851409249</v>
       </c>
       <c r="R46" t="n">
         <v>136.8938057381792</v>
       </c>
       <c r="S46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="T46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="U46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="V46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="W46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="X46" t="n">
-        <v>151.4936909828473</v>
+        <v>151.4936909828472</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.0063703255217</v>
+        <v>151.4936909828472</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5519699003296038</v>
+        <v>0.5519699003296039</v>
       </c>
       <c r="H14" t="n">
-        <v>5.652861741750557</v>
+        <v>5.652861741750558</v>
       </c>
       <c r="I14" t="n">
-        <v>21.27981958245707</v>
+        <v>21.27981958245708</v>
       </c>
       <c r="J14" t="n">
-        <v>46.84775532809976</v>
+        <v>46.84775532809977</v>
       </c>
       <c r="K14" t="n">
-        <v>70.21264120905191</v>
+        <v>70.21264120905192</v>
       </c>
       <c r="L14" t="n">
-        <v>87.10499004626404</v>
+        <v>87.10499004626405</v>
       </c>
       <c r="M14" t="n">
-        <v>96.92108476125063</v>
+        <v>96.92108476125064</v>
       </c>
       <c r="N14" t="n">
-        <v>98.48936924056211</v>
+        <v>98.48936924056214</v>
       </c>
       <c r="O14" t="n">
-        <v>93.00071854415961</v>
+        <v>93.00071854415964</v>
       </c>
       <c r="P14" t="n">
-        <v>79.37396162977251</v>
+        <v>79.37396162977252</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.60653957421855</v>
+        <v>59.60653957421856</v>
       </c>
       <c r="R14" t="n">
-        <v>34.67267925157951</v>
+        <v>34.67267925157952</v>
       </c>
       <c r="S14" t="n">
         <v>12.57801410376086</v>
       </c>
       <c r="T14" t="n">
-        <v>2.416248238692842</v>
+        <v>2.416248238692843</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0441575920263683</v>
+        <v>0.04415759202636831</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,40 +32075,40 @@
         <v>10.1681577806591</v>
       </c>
       <c r="J15" t="n">
-        <v>27.90220213416275</v>
+        <v>27.90220213416276</v>
       </c>
       <c r="K15" t="n">
-        <v>47.68930764465298</v>
+        <v>47.689307644653</v>
       </c>
       <c r="L15" t="n">
-        <v>64.12415935433485</v>
+        <v>64.12415935433486</v>
       </c>
       <c r="M15" t="n">
-        <v>74.82986942530903</v>
+        <v>74.82986942530904</v>
       </c>
       <c r="N15" t="n">
-        <v>76.81039340577118</v>
+        <v>76.81039340577119</v>
       </c>
       <c r="O15" t="n">
-        <v>70.26650383788713</v>
+        <v>70.26650383788714</v>
       </c>
       <c r="P15" t="n">
-        <v>56.39506413431029</v>
+        <v>56.3950641343103</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.69860688513405</v>
+        <v>37.69860688513407</v>
       </c>
       <c r="R15" t="n">
-        <v>18.3363619800013</v>
+        <v>18.33636198000131</v>
       </c>
       <c r="S15" t="n">
-        <v>5.485623974661305</v>
+        <v>5.485623974661306</v>
       </c>
       <c r="T15" t="n">
         <v>1.190386879035122</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01942960085476261</v>
+        <v>0.01942960085476262</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,31 +32148,31 @@
         <v>0.2475946950453901</v>
       </c>
       <c r="H16" t="n">
-        <v>2.201341925039924</v>
+        <v>2.201341925039925</v>
       </c>
       <c r="I16" t="n">
-        <v>7.445847738274097</v>
+        <v>7.445847738274098</v>
       </c>
       <c r="J16" t="n">
         <v>17.50494493970908</v>
       </c>
       <c r="K16" t="n">
-        <v>28.76600184254622</v>
+        <v>28.76600184254623</v>
       </c>
       <c r="L16" t="n">
-        <v>36.81057857065736</v>
+        <v>36.81057857065737</v>
       </c>
       <c r="M16" t="n">
-        <v>38.81159387879691</v>
+        <v>38.81159387879693</v>
       </c>
       <c r="N16" t="n">
-        <v>37.88874092453685</v>
+        <v>37.88874092453686</v>
       </c>
       <c r="O16" t="n">
         <v>34.99638471423388</v>
       </c>
       <c r="P16" t="n">
-        <v>29.94545293530789</v>
+        <v>29.9454529353079</v>
       </c>
       <c r="Q16" t="n">
         <v>20.73267941875535</v>
@@ -32181,7 +32181,7 @@
         <v>11.13275783358636</v>
       </c>
       <c r="S16" t="n">
-        <v>4.314900276381933</v>
+        <v>4.314900276381934</v>
       </c>
       <c r="T16" t="n">
         <v>1.05790460610303</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5519699003296038</v>
+        <v>0.5519699003296029</v>
       </c>
       <c r="H29" t="n">
-        <v>5.652861741750557</v>
+        <v>5.652861741750548</v>
       </c>
       <c r="I29" t="n">
-        <v>21.27981958245707</v>
+        <v>21.27981958245704</v>
       </c>
       <c r="J29" t="n">
-        <v>46.84775532809976</v>
+        <v>46.84775532809968</v>
       </c>
       <c r="K29" t="n">
-        <v>70.21264120905191</v>
+        <v>70.21264120905178</v>
       </c>
       <c r="L29" t="n">
-        <v>87.10499004626404</v>
+        <v>87.10499004626389</v>
       </c>
       <c r="M29" t="n">
-        <v>96.92108476125063</v>
+        <v>96.92108476125047</v>
       </c>
       <c r="N29" t="n">
-        <v>98.48936924056211</v>
+        <v>98.48936924056196</v>
       </c>
       <c r="O29" t="n">
-        <v>93.00071854415961</v>
+        <v>93.00071854415945</v>
       </c>
       <c r="P29" t="n">
-        <v>79.37396162977251</v>
+        <v>79.37396162977238</v>
       </c>
       <c r="Q29" t="n">
-        <v>59.60653957421855</v>
+        <v>59.60653957421845</v>
       </c>
       <c r="R29" t="n">
-        <v>34.67267925157951</v>
+        <v>34.67267925157945</v>
       </c>
       <c r="S29" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376084</v>
       </c>
       <c r="T29" t="n">
-        <v>2.416248238692842</v>
+        <v>2.416248238692838</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0441575920263683</v>
+        <v>0.04415759202636823</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923911</v>
       </c>
       <c r="H30" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479146</v>
       </c>
       <c r="I30" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065908</v>
       </c>
       <c r="J30" t="n">
-        <v>27.90220213416275</v>
+        <v>27.90220213416271</v>
       </c>
       <c r="K30" t="n">
-        <v>47.68930764465298</v>
+        <v>47.68930764465291</v>
       </c>
       <c r="L30" t="n">
-        <v>64.12415935433485</v>
+        <v>64.12415935433475</v>
       </c>
       <c r="M30" t="n">
-        <v>74.82986942530903</v>
+        <v>74.8298694253089</v>
       </c>
       <c r="N30" t="n">
-        <v>76.81039340577118</v>
+        <v>76.81039340577105</v>
       </c>
       <c r="O30" t="n">
-        <v>70.26650383788713</v>
+        <v>70.26650383788702</v>
       </c>
       <c r="P30" t="n">
-        <v>56.39506413431029</v>
+        <v>56.3950641343102</v>
       </c>
       <c r="Q30" t="n">
-        <v>37.69860688513405</v>
+        <v>37.698606885134</v>
       </c>
       <c r="R30" t="n">
-        <v>18.3363619800013</v>
+        <v>18.33636198000127</v>
       </c>
       <c r="S30" t="n">
-        <v>5.485623974661305</v>
+        <v>5.485623974661296</v>
       </c>
       <c r="T30" t="n">
-        <v>1.190386879035122</v>
+        <v>1.19038687903512</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01942960085476261</v>
+        <v>0.01942960085476258</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453897</v>
       </c>
       <c r="H31" t="n">
-        <v>2.201341925039924</v>
+        <v>2.201341925039921</v>
       </c>
       <c r="I31" t="n">
-        <v>7.445847738274097</v>
+        <v>7.445847738274084</v>
       </c>
       <c r="J31" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970905</v>
       </c>
       <c r="K31" t="n">
-        <v>28.76600184254622</v>
+        <v>28.76600184254618</v>
       </c>
       <c r="L31" t="n">
-        <v>36.81057857065736</v>
+        <v>36.81057857065731</v>
       </c>
       <c r="M31" t="n">
-        <v>38.81159387879691</v>
+        <v>38.81159387879685</v>
       </c>
       <c r="N31" t="n">
-        <v>37.88874092453685</v>
+        <v>37.88874092453679</v>
       </c>
       <c r="O31" t="n">
-        <v>34.99638471423388</v>
+        <v>34.99638471423382</v>
       </c>
       <c r="P31" t="n">
-        <v>29.94545293530789</v>
+        <v>29.94545293530784</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875531</v>
       </c>
       <c r="R31" t="n">
-        <v>11.13275783358636</v>
+        <v>11.13275783358634</v>
       </c>
       <c r="S31" t="n">
-        <v>4.314900276381933</v>
+        <v>4.314900276381926</v>
       </c>
       <c r="T31" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103028</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.013505165184294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5519699003296038</v>
+        <v>0.5519699003296039</v>
       </c>
       <c r="H32" t="n">
-        <v>5.652861741750557</v>
+        <v>5.652861741750558</v>
       </c>
       <c r="I32" t="n">
-        <v>21.27981958245707</v>
+        <v>21.27981958245708</v>
       </c>
       <c r="J32" t="n">
-        <v>46.84775532809976</v>
+        <v>46.84775532809977</v>
       </c>
       <c r="K32" t="n">
-        <v>70.21264120905191</v>
+        <v>70.21264120905192</v>
       </c>
       <c r="L32" t="n">
-        <v>87.10499004626404</v>
+        <v>87.10499004626405</v>
       </c>
       <c r="M32" t="n">
-        <v>96.92108476125063</v>
+        <v>96.92108476125064</v>
       </c>
       <c r="N32" t="n">
-        <v>98.48936924056211</v>
+        <v>98.48936924056214</v>
       </c>
       <c r="O32" t="n">
-        <v>93.00071854415961</v>
+        <v>93.00071854415964</v>
       </c>
       <c r="P32" t="n">
-        <v>79.37396162977251</v>
+        <v>79.37396162977252</v>
       </c>
       <c r="Q32" t="n">
-        <v>59.60653957421855</v>
+        <v>59.60653957421856</v>
       </c>
       <c r="R32" t="n">
-        <v>34.67267925157951</v>
+        <v>34.67267925157952</v>
       </c>
       <c r="S32" t="n">
         <v>12.57801410376086</v>
       </c>
       <c r="T32" t="n">
-        <v>2.416248238692842</v>
+        <v>2.416248238692843</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0441575920263683</v>
+        <v>0.04415759202636831</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,40 +33497,40 @@
         <v>10.1681577806591</v>
       </c>
       <c r="J33" t="n">
-        <v>27.90220213416275</v>
+        <v>27.90220213416276</v>
       </c>
       <c r="K33" t="n">
-        <v>47.68930764465298</v>
+        <v>47.689307644653</v>
       </c>
       <c r="L33" t="n">
-        <v>64.12415935433485</v>
+        <v>64.12415935433486</v>
       </c>
       <c r="M33" t="n">
-        <v>74.82986942530903</v>
+        <v>74.82986942530904</v>
       </c>
       <c r="N33" t="n">
-        <v>76.81039340577118</v>
+        <v>76.81039340577119</v>
       </c>
       <c r="O33" t="n">
-        <v>70.26650383788713</v>
+        <v>70.26650383788714</v>
       </c>
       <c r="P33" t="n">
-        <v>56.39506413431029</v>
+        <v>56.3950641343103</v>
       </c>
       <c r="Q33" t="n">
-        <v>37.69860688513405</v>
+        <v>37.69860688513407</v>
       </c>
       <c r="R33" t="n">
-        <v>18.3363619800013</v>
+        <v>18.33636198000131</v>
       </c>
       <c r="S33" t="n">
-        <v>5.485623974661305</v>
+        <v>5.485623974661306</v>
       </c>
       <c r="T33" t="n">
         <v>1.190386879035122</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01942960085476261</v>
+        <v>0.01942960085476262</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,31 +33570,31 @@
         <v>0.2475946950453901</v>
       </c>
       <c r="H34" t="n">
-        <v>2.201341925039924</v>
+        <v>2.201341925039925</v>
       </c>
       <c r="I34" t="n">
-        <v>7.445847738274097</v>
+        <v>7.445847738274098</v>
       </c>
       <c r="J34" t="n">
         <v>17.50494493970908</v>
       </c>
       <c r="K34" t="n">
-        <v>28.76600184254622</v>
+        <v>28.76600184254623</v>
       </c>
       <c r="L34" t="n">
-        <v>36.81057857065736</v>
+        <v>36.81057857065737</v>
       </c>
       <c r="M34" t="n">
-        <v>38.81159387879691</v>
+        <v>38.81159387879693</v>
       </c>
       <c r="N34" t="n">
-        <v>37.88874092453685</v>
+        <v>37.88874092453686</v>
       </c>
       <c r="O34" t="n">
         <v>34.99638471423388</v>
       </c>
       <c r="P34" t="n">
-        <v>29.94545293530789</v>
+        <v>29.9454529353079</v>
       </c>
       <c r="Q34" t="n">
         <v>20.73267941875535</v>
@@ -33603,7 +33603,7 @@
         <v>11.13275783358636</v>
       </c>
       <c r="S34" t="n">
-        <v>4.314900276381933</v>
+        <v>4.314900276381934</v>
       </c>
       <c r="T34" t="n">
         <v>1.05790460610303</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5519699003296038</v>
+        <v>0.5519699003296042</v>
       </c>
       <c r="H35" t="n">
-        <v>5.652861741750557</v>
+        <v>5.65286174175056</v>
       </c>
       <c r="I35" t="n">
-        <v>21.27981958245707</v>
+        <v>21.27981958245709</v>
       </c>
       <c r="J35" t="n">
-        <v>46.84775532809976</v>
+        <v>46.84775532809979</v>
       </c>
       <c r="K35" t="n">
-        <v>70.21264120905191</v>
+        <v>70.21264120905195</v>
       </c>
       <c r="L35" t="n">
-        <v>87.10499004626404</v>
+        <v>87.10499004626409</v>
       </c>
       <c r="M35" t="n">
-        <v>96.92108476125063</v>
+        <v>96.92108476125068</v>
       </c>
       <c r="N35" t="n">
-        <v>98.48936924056211</v>
+        <v>98.48936924056218</v>
       </c>
       <c r="O35" t="n">
-        <v>93.00071854415961</v>
+        <v>93.00071854415967</v>
       </c>
       <c r="P35" t="n">
-        <v>79.37396162977251</v>
+        <v>79.37396162977255</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.60653957421855</v>
+        <v>59.60653957421859</v>
       </c>
       <c r="R35" t="n">
-        <v>34.67267925157951</v>
+        <v>34.67267925157953</v>
       </c>
       <c r="S35" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T35" t="n">
-        <v>2.416248238692842</v>
+        <v>2.416248238692844</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0441575920263683</v>
+        <v>0.04415759202636833</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923917</v>
       </c>
       <c r="H36" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479153</v>
       </c>
       <c r="I36" t="n">
         <v>10.1681577806591</v>
       </c>
       <c r="J36" t="n">
-        <v>27.90220213416275</v>
+        <v>27.90220213416277</v>
       </c>
       <c r="K36" t="n">
-        <v>47.68930764465298</v>
+        <v>47.68930764465302</v>
       </c>
       <c r="L36" t="n">
-        <v>64.12415935433485</v>
+        <v>64.12415935433489</v>
       </c>
       <c r="M36" t="n">
-        <v>74.82986942530903</v>
+        <v>74.82986942530907</v>
       </c>
       <c r="N36" t="n">
-        <v>76.81039340577118</v>
+        <v>76.81039340577122</v>
       </c>
       <c r="O36" t="n">
-        <v>70.26650383788713</v>
+        <v>70.26650383788717</v>
       </c>
       <c r="P36" t="n">
-        <v>56.39506413431029</v>
+        <v>56.39506413431032</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.69860688513405</v>
+        <v>37.69860688513408</v>
       </c>
       <c r="R36" t="n">
-        <v>18.3363619800013</v>
+        <v>18.33636198000131</v>
       </c>
       <c r="S36" t="n">
-        <v>5.485623974661305</v>
+        <v>5.485623974661308</v>
       </c>
       <c r="T36" t="n">
         <v>1.190386879035122</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01942960085476261</v>
+        <v>0.01942960085476262</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453903</v>
       </c>
       <c r="H37" t="n">
-        <v>2.201341925039924</v>
+        <v>2.201341925039926</v>
       </c>
       <c r="I37" t="n">
-        <v>7.445847738274097</v>
+        <v>7.445847738274102</v>
       </c>
       <c r="J37" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970909</v>
       </c>
       <c r="K37" t="n">
-        <v>28.76600184254622</v>
+        <v>28.76600184254624</v>
       </c>
       <c r="L37" t="n">
-        <v>36.81057857065736</v>
+        <v>36.81057857065739</v>
       </c>
       <c r="M37" t="n">
-        <v>38.81159387879691</v>
+        <v>38.81159387879694</v>
       </c>
       <c r="N37" t="n">
-        <v>37.88874092453685</v>
+        <v>37.88874092453688</v>
       </c>
       <c r="O37" t="n">
-        <v>34.99638471423388</v>
+        <v>34.9963847142339</v>
       </c>
       <c r="P37" t="n">
-        <v>29.94545293530789</v>
+        <v>29.94545293530791</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R37" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S37" t="n">
-        <v>4.314900276381933</v>
+        <v>4.314900276381936</v>
       </c>
       <c r="T37" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5519699003296038</v>
+        <v>0.5519699003296042</v>
       </c>
       <c r="H38" t="n">
-        <v>5.652861741750557</v>
+        <v>5.65286174175056</v>
       </c>
       <c r="I38" t="n">
-        <v>21.27981958245707</v>
+        <v>21.27981958245709</v>
       </c>
       <c r="J38" t="n">
-        <v>46.84775532809976</v>
+        <v>46.84775532809979</v>
       </c>
       <c r="K38" t="n">
-        <v>70.21264120905191</v>
+        <v>70.21264120905195</v>
       </c>
       <c r="L38" t="n">
-        <v>87.10499004626404</v>
+        <v>87.10499004626409</v>
       </c>
       <c r="M38" t="n">
-        <v>96.92108476125063</v>
+        <v>96.92108476125068</v>
       </c>
       <c r="N38" t="n">
-        <v>98.48936924056211</v>
+        <v>98.48936924056218</v>
       </c>
       <c r="O38" t="n">
-        <v>93.00071854415961</v>
+        <v>93.00071854415967</v>
       </c>
       <c r="P38" t="n">
-        <v>79.37396162977251</v>
+        <v>79.37396162977255</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.60653957421855</v>
+        <v>59.60653957421859</v>
       </c>
       <c r="R38" t="n">
-        <v>34.67267925157951</v>
+        <v>34.67267925157953</v>
       </c>
       <c r="S38" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T38" t="n">
-        <v>2.416248238692842</v>
+        <v>2.416248238692844</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0441575920263683</v>
+        <v>0.04415759202636833</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923917</v>
       </c>
       <c r="H39" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479153</v>
       </c>
       <c r="I39" t="n">
         <v>10.1681577806591</v>
       </c>
       <c r="J39" t="n">
-        <v>27.90220213416275</v>
+        <v>27.90220213416277</v>
       </c>
       <c r="K39" t="n">
-        <v>47.68930764465298</v>
+        <v>47.68930764465302</v>
       </c>
       <c r="L39" t="n">
-        <v>64.12415935433485</v>
+        <v>64.12415935433489</v>
       </c>
       <c r="M39" t="n">
-        <v>74.82986942530903</v>
+        <v>74.82986942530907</v>
       </c>
       <c r="N39" t="n">
-        <v>76.81039340577118</v>
+        <v>76.81039340577122</v>
       </c>
       <c r="O39" t="n">
-        <v>70.26650383788713</v>
+        <v>70.26650383788717</v>
       </c>
       <c r="P39" t="n">
-        <v>56.39506413431029</v>
+        <v>56.39506413431032</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.69860688513405</v>
+        <v>37.69860688513408</v>
       </c>
       <c r="R39" t="n">
-        <v>18.3363619800013</v>
+        <v>18.33636198000131</v>
       </c>
       <c r="S39" t="n">
-        <v>5.485623974661305</v>
+        <v>5.485623974661308</v>
       </c>
       <c r="T39" t="n">
         <v>1.190386879035122</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01942960085476261</v>
+        <v>0.01942960085476262</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453903</v>
       </c>
       <c r="H40" t="n">
-        <v>2.201341925039924</v>
+        <v>2.201341925039926</v>
       </c>
       <c r="I40" t="n">
-        <v>7.445847738274097</v>
+        <v>7.445847738274102</v>
       </c>
       <c r="J40" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970909</v>
       </c>
       <c r="K40" t="n">
-        <v>28.76600184254622</v>
+        <v>28.76600184254624</v>
       </c>
       <c r="L40" t="n">
-        <v>36.81057857065736</v>
+        <v>36.81057857065739</v>
       </c>
       <c r="M40" t="n">
-        <v>38.81159387879691</v>
+        <v>38.81159387879694</v>
       </c>
       <c r="N40" t="n">
-        <v>37.88874092453685</v>
+        <v>37.88874092453688</v>
       </c>
       <c r="O40" t="n">
-        <v>34.99638471423388</v>
+        <v>34.9963847142339</v>
       </c>
       <c r="P40" t="n">
-        <v>29.94545293530789</v>
+        <v>29.94545293530791</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R40" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S40" t="n">
-        <v>4.314900276381933</v>
+        <v>4.314900276381936</v>
       </c>
       <c r="T40" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5519699003296038</v>
+        <v>0.5519699003296042</v>
       </c>
       <c r="H41" t="n">
-        <v>5.652861741750557</v>
+        <v>5.65286174175056</v>
       </c>
       <c r="I41" t="n">
-        <v>21.27981958245707</v>
+        <v>21.27981958245709</v>
       </c>
       <c r="J41" t="n">
-        <v>46.84775532809976</v>
+        <v>46.84775532809979</v>
       </c>
       <c r="K41" t="n">
-        <v>70.21264120905191</v>
+        <v>70.21264120905195</v>
       </c>
       <c r="L41" t="n">
-        <v>87.10499004626404</v>
+        <v>87.10499004626409</v>
       </c>
       <c r="M41" t="n">
-        <v>96.92108476125063</v>
+        <v>96.92108476125068</v>
       </c>
       <c r="N41" t="n">
-        <v>98.48936924056211</v>
+        <v>98.48936924056218</v>
       </c>
       <c r="O41" t="n">
-        <v>93.00071854415961</v>
+        <v>93.00071854415967</v>
       </c>
       <c r="P41" t="n">
-        <v>79.37396162977251</v>
+        <v>79.37396162977255</v>
       </c>
       <c r="Q41" t="n">
-        <v>59.60653957421855</v>
+        <v>59.60653957421859</v>
       </c>
       <c r="R41" t="n">
-        <v>34.67267925157951</v>
+        <v>34.67267925157953</v>
       </c>
       <c r="S41" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T41" t="n">
-        <v>2.416248238692842</v>
+        <v>2.416248238692844</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0441575920263683</v>
+        <v>0.04415759202636833</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923917</v>
       </c>
       <c r="H42" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479153</v>
       </c>
       <c r="I42" t="n">
         <v>10.1681577806591</v>
       </c>
       <c r="J42" t="n">
-        <v>27.90220213416275</v>
+        <v>27.90220213416277</v>
       </c>
       <c r="K42" t="n">
-        <v>47.68930764465298</v>
+        <v>47.68930764465302</v>
       </c>
       <c r="L42" t="n">
-        <v>64.12415935433485</v>
+        <v>64.12415935433489</v>
       </c>
       <c r="M42" t="n">
-        <v>74.82986942530903</v>
+        <v>74.82986942530907</v>
       </c>
       <c r="N42" t="n">
-        <v>76.81039340577118</v>
+        <v>76.81039340577122</v>
       </c>
       <c r="O42" t="n">
-        <v>70.26650383788713</v>
+        <v>70.26650383788717</v>
       </c>
       <c r="P42" t="n">
-        <v>56.39506413431029</v>
+        <v>56.39506413431032</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.69860688513405</v>
+        <v>37.69860688513408</v>
       </c>
       <c r="R42" t="n">
-        <v>18.3363619800013</v>
+        <v>18.33636198000131</v>
       </c>
       <c r="S42" t="n">
-        <v>5.485623974661305</v>
+        <v>5.485623974661308</v>
       </c>
       <c r="T42" t="n">
         <v>1.190386879035122</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01942960085476261</v>
+        <v>0.01942960085476262</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453903</v>
       </c>
       <c r="H43" t="n">
-        <v>2.201341925039924</v>
+        <v>2.201341925039926</v>
       </c>
       <c r="I43" t="n">
-        <v>7.445847738274097</v>
+        <v>7.445847738274102</v>
       </c>
       <c r="J43" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970909</v>
       </c>
       <c r="K43" t="n">
-        <v>28.76600184254622</v>
+        <v>28.76600184254624</v>
       </c>
       <c r="L43" t="n">
-        <v>36.81057857065736</v>
+        <v>36.81057857065739</v>
       </c>
       <c r="M43" t="n">
-        <v>38.81159387879691</v>
+        <v>38.81159387879694</v>
       </c>
       <c r="N43" t="n">
-        <v>37.88874092453685</v>
+        <v>37.88874092453688</v>
       </c>
       <c r="O43" t="n">
-        <v>34.99638471423388</v>
+        <v>34.9963847142339</v>
       </c>
       <c r="P43" t="n">
-        <v>29.94545293530789</v>
+        <v>29.94545293530791</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R43" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S43" t="n">
-        <v>4.314900276381933</v>
+        <v>4.314900276381936</v>
       </c>
       <c r="T43" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5519699003296038</v>
+        <v>0.5519699003296044</v>
       </c>
       <c r="H44" t="n">
-        <v>5.652861741750557</v>
+        <v>5.652861741750562</v>
       </c>
       <c r="I44" t="n">
-        <v>21.27981958245707</v>
+        <v>21.27981958245709</v>
       </c>
       <c r="J44" t="n">
-        <v>46.84775532809976</v>
+        <v>46.84775532809979</v>
       </c>
       <c r="K44" t="n">
-        <v>70.21264120905191</v>
+        <v>70.21264120905197</v>
       </c>
       <c r="L44" t="n">
-        <v>87.10499004626404</v>
+        <v>87.10499004626411</v>
       </c>
       <c r="M44" t="n">
-        <v>96.92108476125063</v>
+        <v>96.9210847612507</v>
       </c>
       <c r="N44" t="n">
-        <v>98.48936924056211</v>
+        <v>98.4893692405622</v>
       </c>
       <c r="O44" t="n">
-        <v>93.00071854415961</v>
+        <v>93.0007185441597</v>
       </c>
       <c r="P44" t="n">
-        <v>79.37396162977251</v>
+        <v>79.37396162977257</v>
       </c>
       <c r="Q44" t="n">
-        <v>59.60653957421855</v>
+        <v>59.6065395742186</v>
       </c>
       <c r="R44" t="n">
-        <v>34.67267925157951</v>
+        <v>34.67267925157954</v>
       </c>
       <c r="S44" t="n">
-        <v>12.57801410376086</v>
+        <v>12.57801410376087</v>
       </c>
       <c r="T44" t="n">
-        <v>2.416248238692842</v>
+        <v>2.416248238692844</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0441575920263683</v>
+        <v>0.04415759202636833</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2953299329923916</v>
+        <v>0.2953299329923918</v>
       </c>
       <c r="H45" t="n">
-        <v>2.852265405479151</v>
+        <v>2.852265405479153</v>
       </c>
       <c r="I45" t="n">
-        <v>10.1681577806591</v>
+        <v>10.16815778065911</v>
       </c>
       <c r="J45" t="n">
-        <v>27.90220213416275</v>
+        <v>27.90220213416278</v>
       </c>
       <c r="K45" t="n">
-        <v>47.68930764465298</v>
+        <v>47.68930764465303</v>
       </c>
       <c r="L45" t="n">
-        <v>64.12415935433485</v>
+        <v>64.12415935433491</v>
       </c>
       <c r="M45" t="n">
-        <v>74.82986942530903</v>
+        <v>74.8298694253091</v>
       </c>
       <c r="N45" t="n">
-        <v>76.81039340577118</v>
+        <v>76.81039340577124</v>
       </c>
       <c r="O45" t="n">
-        <v>70.26650383788713</v>
+        <v>70.26650383788719</v>
       </c>
       <c r="P45" t="n">
-        <v>56.39506413431029</v>
+        <v>56.39506413431033</v>
       </c>
       <c r="Q45" t="n">
-        <v>37.69860688513405</v>
+        <v>37.69860688513409</v>
       </c>
       <c r="R45" t="n">
-        <v>18.3363619800013</v>
+        <v>18.33636198000132</v>
       </c>
       <c r="S45" t="n">
-        <v>5.485623974661305</v>
+        <v>5.485623974661309</v>
       </c>
       <c r="T45" t="n">
-        <v>1.190386879035122</v>
+        <v>1.190386879035123</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01942960085476261</v>
+        <v>0.01942960085476263</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2475946950453901</v>
+        <v>0.2475946950453903</v>
       </c>
       <c r="H46" t="n">
-        <v>2.201341925039924</v>
+        <v>2.201341925039926</v>
       </c>
       <c r="I46" t="n">
-        <v>7.445847738274097</v>
+        <v>7.445847738274103</v>
       </c>
       <c r="J46" t="n">
-        <v>17.50494493970908</v>
+        <v>17.50494493970909</v>
       </c>
       <c r="K46" t="n">
-        <v>28.76600184254622</v>
+        <v>28.76600184254625</v>
       </c>
       <c r="L46" t="n">
-        <v>36.81057857065736</v>
+        <v>36.8105785706574</v>
       </c>
       <c r="M46" t="n">
-        <v>38.81159387879691</v>
+        <v>38.81159387879695</v>
       </c>
       <c r="N46" t="n">
-        <v>37.88874092453685</v>
+        <v>37.88874092453689</v>
       </c>
       <c r="O46" t="n">
-        <v>34.99638471423388</v>
+        <v>34.9963847142339</v>
       </c>
       <c r="P46" t="n">
-        <v>29.94545293530789</v>
+        <v>29.94545293530792</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.73267941875535</v>
+        <v>20.73267941875536</v>
       </c>
       <c r="R46" t="n">
         <v>11.13275783358636</v>
       </c>
       <c r="S46" t="n">
-        <v>4.314900276381933</v>
+        <v>4.314900276381937</v>
       </c>
       <c r="T46" t="n">
-        <v>1.05790460610303</v>
+        <v>1.057904606103031</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01350516518429402</v>
+        <v>0.01350516518429403</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>158.3799380789247</v>
+        <v>158.3799380789402</v>
       </c>
       <c r="M11" t="n">
         <v>494.1323638047738</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>504.8668763435784</v>
+        <v>469.167550234844</v>
       </c>
       <c r="N12" t="n">
-        <v>469.1675502348324</v>
+        <v>504.8668763435823</v>
       </c>
       <c r="O12" t="n">
         <v>466.4280702865244</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.27975764525972</v>
+        <v>60.27975764525959</v>
       </c>
       <c r="K13" t="n">
-        <v>164.9411047325542</v>
+        <v>164.941104732554</v>
       </c>
       <c r="L13" t="n">
-        <v>240.6653700016917</v>
+        <v>240.6653700016915</v>
       </c>
       <c r="M13" t="n">
-        <v>260.2284325091668</v>
+        <v>260.2284325091667</v>
       </c>
       <c r="N13" t="n">
-        <v>259.7387468498549</v>
+        <v>259.7387468498547</v>
       </c>
       <c r="O13" t="n">
-        <v>236.6860924032785</v>
+        <v>236.6860924032783</v>
       </c>
       <c r="P13" t="n">
-        <v>195.7814608591486</v>
+        <v>195.7814608591484</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.81219039142714</v>
+        <v>84.81219039142701</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>119.5735576238631</v>
       </c>
       <c r="K14" t="n">
-        <v>8.738547661001137</v>
+        <v>8.73854766099126</v>
       </c>
       <c r="L14" t="n">
         <v>438.504356798735</v>
@@ -35656,10 +35656,10 @@
         <v>494.1323638047738</v>
       </c>
       <c r="N14" t="n">
-        <v>480.6422568039113</v>
+        <v>480.6422568039114</v>
       </c>
       <c r="O14" t="n">
-        <v>401.086157405608</v>
+        <v>401.0861574056081</v>
       </c>
       <c r="P14" t="n">
         <v>309.8354732015434</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>224.4680618597333</v>
+        <v>224.4680618597235</v>
       </c>
       <c r="M15" t="n">
         <v>564.7625497386691</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.27975764525973</v>
+        <v>60.27975764525968</v>
       </c>
       <c r="K16" t="n">
         <v>164.9411047325542</v>
       </c>
       <c r="L16" t="n">
-        <v>240.6653700016917</v>
+        <v>240.6653700016916</v>
       </c>
       <c r="M16" t="n">
-        <v>260.2284325091668</v>
+        <v>260.2284325091667</v>
       </c>
       <c r="N16" t="n">
-        <v>259.7387468498549</v>
+        <v>259.7387468498548</v>
       </c>
       <c r="O16" t="n">
-        <v>236.6860924032785</v>
+        <v>236.6860924032784</v>
       </c>
       <c r="P16" t="n">
-        <v>195.7814608591486</v>
+        <v>195.7814608591485</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.81219039142715</v>
+        <v>84.81219039142709</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,10 +35884,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>312.7786735775194</v>
+        <v>128.3121052848543</v>
       </c>
       <c r="L17" t="n">
-        <v>254.0377885060798</v>
+        <v>438.504356798735</v>
       </c>
       <c r="M17" t="n">
         <v>494.1323638047738</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>433.641174677684</v>
+        <v>224.4680618597235</v>
       </c>
       <c r="M18" t="n">
-        <v>355.5894369207184</v>
+        <v>564.7625497386691</v>
       </c>
       <c r="N18" t="n">
         <v>593.2403389846824</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>128.3121052848642</v>
+        <v>128.3121052848556</v>
       </c>
       <c r="L20" t="n">
         <v>438.504356798735</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>224.4680618597333</v>
+        <v>224.4680618597248</v>
       </c>
       <c r="M21" t="n">
         <v>564.7625497386691</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>119.5735576238631</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>8.738547660999787</v>
+        <v>128.3121052848534</v>
       </c>
       <c r="L23" t="n">
         <v>438.504356798735</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>88.76497641002756</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>135.7030854497044</v>
+        <v>433.641174677684</v>
       </c>
       <c r="M24" t="n">
-        <v>564.7625497386691</v>
+        <v>355.5894369207076</v>
       </c>
       <c r="N24" t="n">
         <v>593.2403389846824</v>
@@ -36595,16 +36595,16 @@
         <v>221.8050365293827</v>
       </c>
       <c r="K26" t="n">
-        <v>312.7786735775194</v>
+        <v>415.010152483039</v>
       </c>
       <c r="L26" t="n">
-        <v>540.7358357042547</v>
+        <v>438.504356798735</v>
       </c>
       <c r="M26" t="n">
-        <v>596.3638427102934</v>
+        <v>585.7890681135357</v>
       </c>
       <c r="N26" t="n">
-        <v>572.2989611126728</v>
+        <v>582.873735709431</v>
       </c>
       <c r="O26" t="n">
         <v>503.3176363111277</v>
@@ -36616,7 +36616,7 @@
         <v>257.2241333146241</v>
       </c>
       <c r="R26" t="n">
-        <v>47.17225451799397</v>
+        <v>47.17225451799396</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.27975764525972</v>
+        <v>60.27975764525971</v>
       </c>
       <c r="K28" t="n">
         <v>164.9411047325542</v>
@@ -36768,10 +36768,10 @@
         <v>236.6860924032785</v>
       </c>
       <c r="P28" t="n">
-        <v>195.7814608591486</v>
+        <v>195.7814608591485</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.81219039142714</v>
+        <v>84.81219039142712</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>119.5735576238631</v>
+        <v>221.8050365293826</v>
       </c>
       <c r="K29" t="n">
-        <v>415.010152483039</v>
+        <v>415.0101524830388</v>
       </c>
       <c r="L29" t="n">
-        <v>540.7358357042546</v>
+        <v>438.5043567987348</v>
       </c>
       <c r="M29" t="n">
-        <v>596.3638427102935</v>
+        <v>585.7890681135366</v>
       </c>
       <c r="N29" t="n">
-        <v>582.873735709431</v>
+        <v>582.8737357094308</v>
       </c>
       <c r="O29" t="n">
-        <v>492.7428617143684</v>
+        <v>503.3176363111275</v>
       </c>
       <c r="P29" t="n">
-        <v>412.0669521070631</v>
+        <v>412.0669521070629</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.2241333146241</v>
+        <v>257.2241333146239</v>
       </c>
       <c r="R29" t="n">
-        <v>47.17225451799398</v>
+        <v>47.17225451799389</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>321.923054355866</v>
+        <v>321.9230543558674</v>
       </c>
       <c r="M30" t="n">
-        <v>564.7625497386691</v>
+        <v>564.7625497386689</v>
       </c>
       <c r="N30" t="n">
-        <v>593.2403389846824</v>
+        <v>593.2403389846822</v>
       </c>
       <c r="O30" t="n">
-        <v>466.4280702865244</v>
+        <v>466.4280702865242</v>
       </c>
       <c r="P30" t="n">
-        <v>361.5424573420853</v>
+        <v>361.5424573420852</v>
       </c>
       <c r="Q30" t="n">
-        <v>197.0638894968454</v>
+        <v>197.0638894968453</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.27975764525973</v>
+        <v>60.27975764525967</v>
       </c>
       <c r="K31" t="n">
-        <v>164.9411047325542</v>
+        <v>164.9411047325541</v>
       </c>
       <c r="L31" t="n">
-        <v>240.6653700016917</v>
+        <v>240.6653700016916</v>
       </c>
       <c r="M31" t="n">
-        <v>260.2284325091668</v>
+        <v>260.2284325091667</v>
       </c>
       <c r="N31" t="n">
-        <v>259.7387468498549</v>
+        <v>259.7387468498548</v>
       </c>
       <c r="O31" t="n">
-        <v>236.6860924032785</v>
+        <v>236.6860924032784</v>
       </c>
       <c r="P31" t="n">
-        <v>195.7814608591486</v>
+        <v>195.7814608591485</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.81219039142715</v>
+        <v>84.81219039142708</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>221.8050365293827</v>
       </c>
       <c r="K32" t="n">
-        <v>312.7786735775193</v>
+        <v>415.010152483039</v>
       </c>
       <c r="L32" t="n">
-        <v>530.1610611074952</v>
+        <v>540.7358357042547</v>
       </c>
       <c r="M32" t="n">
-        <v>596.3638427102935</v>
+        <v>585.7890681135345</v>
       </c>
       <c r="N32" t="n">
         <v>582.873735709431</v>
       </c>
       <c r="O32" t="n">
-        <v>503.3176363111277</v>
+        <v>503.3176363111278</v>
       </c>
       <c r="P32" t="n">
         <v>412.0669521070631</v>
       </c>
       <c r="Q32" t="n">
-        <v>257.2241333146241</v>
+        <v>154.9926544091044</v>
       </c>
       <c r="R32" t="n">
-        <v>47.17225451799399</v>
+        <v>47.17225451799398</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.27975764525927</v>
+        <v>60.27975764525974</v>
       </c>
       <c r="K34" t="n">
         <v>164.9411047325542</v>
@@ -37245,7 +37245,7 @@
         <v>195.7814608591486</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.81219039142717</v>
+        <v>84.81219039142715</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>119.5735576238631</v>
       </c>
       <c r="K35" t="n">
-        <v>312.7786735775193</v>
+        <v>312.7786735775194</v>
       </c>
       <c r="L35" t="n">
         <v>438.504356798735</v>
@@ -37315,13 +37315,13 @@
         <v>494.1323638047738</v>
       </c>
       <c r="N35" t="n">
-        <v>480.6422568039113</v>
+        <v>480.6422568039114</v>
       </c>
       <c r="O35" t="n">
-        <v>401.086157405608</v>
+        <v>401.0861574056081</v>
       </c>
       <c r="P35" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015435</v>
       </c>
       <c r="Q35" t="n">
         <v>154.9926544091044</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>321.9230543558659</v>
+        <v>321.9230543558658</v>
       </c>
       <c r="M36" t="n">
         <v>564.7625497386691</v>
       </c>
       <c r="N36" t="n">
-        <v>593.2403389846824</v>
+        <v>593.2403389846825</v>
       </c>
       <c r="O36" t="n">
         <v>466.4280702865244</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.70962582703452</v>
+        <v>62.70962582703454</v>
       </c>
       <c r="L37" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M37" t="n">
-        <v>157.9969536036471</v>
+        <v>157.9969536036472</v>
       </c>
       <c r="N37" t="n">
         <v>157.5072679443352</v>
@@ -37479,7 +37479,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P37" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362892</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>119.5735576238631</v>
       </c>
       <c r="K38" t="n">
-        <v>312.7786735775193</v>
+        <v>312.7786735775198</v>
       </c>
       <c r="L38" t="n">
         <v>438.504356798735</v>
@@ -37552,13 +37552,13 @@
         <v>494.1323638047738</v>
       </c>
       <c r="N38" t="n">
-        <v>480.6422568039113</v>
+        <v>480.6422568039114</v>
       </c>
       <c r="O38" t="n">
-        <v>401.086157405608</v>
+        <v>401.0861574056081</v>
       </c>
       <c r="P38" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015435</v>
       </c>
       <c r="Q38" t="n">
         <v>154.9926544091044</v>
@@ -37625,13 +37625,13 @@
         <v>279.4979465943385</v>
       </c>
       <c r="L39" t="n">
-        <v>42.42510776152744</v>
+        <v>42.42510776152726</v>
       </c>
       <c r="M39" t="n">
         <v>564.7625497386691</v>
       </c>
       <c r="N39" t="n">
-        <v>593.2403389846824</v>
+        <v>593.2403389846825</v>
       </c>
       <c r="O39" t="n">
         <v>466.4280702865244</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.70962582703452</v>
+        <v>62.70962582703454</v>
       </c>
       <c r="L40" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M40" t="n">
-        <v>157.9969536036471</v>
+        <v>157.9969536036472</v>
       </c>
       <c r="N40" t="n">
         <v>157.5072679443352</v>
@@ -37716,7 +37716,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P40" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362892</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>119.5735576238631</v>
       </c>
       <c r="K41" t="n">
-        <v>312.7786735775193</v>
+        <v>312.7786735775194</v>
       </c>
       <c r="L41" t="n">
         <v>438.504356798735</v>
@@ -37789,13 +37789,13 @@
         <v>494.1323638047738</v>
       </c>
       <c r="N41" t="n">
-        <v>480.6422568039113</v>
+        <v>480.6422568039114</v>
       </c>
       <c r="O41" t="n">
-        <v>401.086157405608</v>
+        <v>401.0861574056081</v>
       </c>
       <c r="P41" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015435</v>
       </c>
       <c r="Q41" t="n">
         <v>154.9926544091044</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>279.4979465943385</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>42.42510776152744</v>
+        <v>321.9230543558658</v>
       </c>
       <c r="M42" t="n">
         <v>564.7625497386691</v>
       </c>
       <c r="N42" t="n">
-        <v>593.2403389846824</v>
+        <v>593.2403389846825</v>
       </c>
       <c r="O42" t="n">
         <v>466.4280702865244</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.70962582703452</v>
+        <v>62.70962582703454</v>
       </c>
       <c r="L43" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M43" t="n">
-        <v>157.9969536036471</v>
+        <v>157.9969536036472</v>
       </c>
       <c r="N43" t="n">
         <v>157.5072679443352</v>
@@ -37953,7 +37953,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P43" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362892</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>119.573557623863</v>
+        <v>119.5735576238631</v>
       </c>
       <c r="K44" t="n">
-        <v>312.7786735775193</v>
+        <v>312.7786735775194</v>
       </c>
       <c r="L44" t="n">
         <v>438.504356798735</v>
       </c>
       <c r="M44" t="n">
-        <v>494.1323638047738</v>
+        <v>494.1323638047739</v>
       </c>
       <c r="N44" t="n">
-        <v>480.6422568039113</v>
+        <v>480.6422568039114</v>
       </c>
       <c r="O44" t="n">
-        <v>401.086157405608</v>
+        <v>401.0861574056081</v>
       </c>
       <c r="P44" t="n">
-        <v>309.8354732015434</v>
+        <v>309.8354732015435</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.9926544091044</v>
+        <v>154.9926544091045</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>321.9230543558659</v>
+        <v>321.9230543558658</v>
       </c>
       <c r="M45" t="n">
         <v>564.7625497386691</v>
       </c>
       <c r="N45" t="n">
-        <v>593.2403389846824</v>
+        <v>593.2403389846825</v>
       </c>
       <c r="O45" t="n">
         <v>466.4280702865244</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.70962582703452</v>
+        <v>62.70962582703454</v>
       </c>
       <c r="L46" t="n">
         <v>138.433891096172</v>
       </c>
       <c r="M46" t="n">
-        <v>157.9969536036471</v>
+        <v>157.9969536036472</v>
       </c>
       <c r="N46" t="n">
         <v>157.5072679443352</v>
@@ -38190,7 +38190,7 @@
         <v>134.4546134977588</v>
       </c>
       <c r="P46" t="n">
-        <v>93.5499819536289</v>
+        <v>93.54998195362893</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
